--- a/excel/finished/焦化/CK67-配煤-自动配煤报表（班）.xlsx
+++ b/excel/finished/焦化/CK67-配煤-自动配煤报表（班）.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1、自动配煤（班）" sheetId="1" r:id="rId1"/>
-    <sheet name="_auto_day_shift" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
-    <sheet name="_name_day_shift" sheetId="4" r:id="rId4"/>
+    <sheet name="1、自动配煤（班）" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="_auto_day_shift" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="_name_day_shift" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t xml:space="preserve">焦化分厂焦炉配煤自动配煤操作记录       </t>
   </si>
@@ -25,7 +24,7 @@
     <t>编号：SGSSG-BSMCSA35-G001-02A</t>
   </si>
   <si>
-    <t>筒    仓</t>
+    <t xml:space="preserve">筒    仓</t>
   </si>
   <si>
     <t xml:space="preserve">             1＃仓</t>
@@ -40,7 +39,7 @@
     <t>煤种名称</t>
   </si>
   <si>
-    <t>料    嘴</t>
+    <t xml:space="preserve">料    嘴</t>
   </si>
   <si>
     <t>1－1</t>
@@ -946,231 +945,206 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="160" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="161" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="162" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="163" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.7"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color indexed="4"/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <color indexed="20"/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="18"/>
       <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="Calibri"/>
+      <color indexed="2"/>
       <sz val="11"/>
-      <color indexed="4"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <i/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <name val="Calibri"/>
+      <b/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="Calibri"/>
+      <b/>
+      <color indexed="65"/>
       <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color indexed="65"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <b/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <b/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <b/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <b/>
+      <color theme="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <color theme="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <b/>
+      <color indexed="2"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <b/>
+      <color theme="1" tint="0"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <color indexed="64"/>
+      <sz val="9.6999999999999993"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1178,18 +1152,24 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor theme="2"/>
+        <fgColor theme="6" tint="0.79998168889431398"/>
+        <bgColor theme="6" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810496"/>
+        <bgColor theme="6" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
@@ -1200,20 +1180,56 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241899"/>
+        <bgColor theme="6" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
+        <fgColor theme="5" tint="0.39997558519241899"/>
+        <bgColor theme="5" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.39997558519241899"/>
+        <bgColor theme="4" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241899"/>
+        <bgColor theme="7" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431398"/>
+        <bgColor theme="9" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
@@ -1224,26 +1240,86 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431398"/>
+        <bgColor theme="8" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.79998168889431398"/>
+        <bgColor theme="4" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810496"/>
+        <bgColor theme="4" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.79998168889431398"/>
+        <bgColor theme="5" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810496"/>
+        <bgColor theme="5" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431398"/>
+        <bgColor theme="7" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810496"/>
+        <bgColor theme="7" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810496"/>
+        <bgColor theme="8" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241899"/>
+        <bgColor theme="8" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
@@ -1254,132 +1330,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.59999389629810496"/>
+        <bgColor theme="9" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.39997558519241899"/>
+        <bgColor theme="9" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="2"/>
+        <bgColor theme="2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor theme="9" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor theme="7" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor theme="4" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor theme="8" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor theme="9" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1388,343 +1362,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="medium">
-        <color theme="1"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1744,17 +1392,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1764,17 +1406,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1817,274 +1448,687 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="29">
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="162" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0">
+    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="163" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
+    <xf fontId="3" fillId="6" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28">
+    <xf fontId="0" fillId="7" borderId="2" numFmtId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
+    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27">
+    <xf fontId="10" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27">
+    <xf fontId="11" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
+    <xf fontId="3" fillId="9" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30">
+    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
+    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="32">
+    <xf fontId="12" fillId="11" borderId="5" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="29">
+    <xf fontId="13" fillId="11" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="33">
+    <xf fontId="14" fillId="12" borderId="6" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
+    <xf fontId="0" fillId="13" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
+    <xf fontId="3" fillId="14" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34">
+    <xf fontId="15" fillId="0" borderId="7" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31">
+    <xf fontId="16" fillId="0" borderId="8" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
+    <xf fontId="17" fillId="15" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0">
+    <xf fontId="18" fillId="16" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
+    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0">
+    <xf fontId="3" fillId="18" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
+    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0">
+    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
+    <xf fontId="0" fillId="21" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
+    <xf fontId="0" fillId="22" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
+    <xf fontId="3" fillId="23" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0">
+    <xf fontId="3" fillId="24" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
+    <xf fontId="0" fillId="25" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
+    <xf fontId="0" fillId="26" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0">
+    <xf fontId="3" fillId="27" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
+    <xf fontId="0" fillId="28" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
+    <xf fontId="3" fillId="29" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
+    <xf fontId="3" fillId="30" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
+    <xf fontId="0" fillId="31" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
+    <xf fontId="3" fillId="32" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="59">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="23" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="24" fillId="33" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="25" fillId="33" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="25" fillId="33" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="25" fillId="33" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="25" fillId="33" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="24" fillId="33" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="26" fillId="33" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="26" fillId="33" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="26" fillId="33" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="26" fillId="33" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="26" fillId="33" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="26" fillId="33" borderId="18" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="26" fillId="33" borderId="19" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="23" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="24" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="27" fillId="0" borderId="18" numFmtId="164" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="27" fillId="0" borderId="19" numFmtId="164" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="28" fillId="0" borderId="18" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="28" fillId="0" borderId="19" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="28" fillId="0" borderId="18" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="28" fillId="0" borderId="19" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="24" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="28" fillId="0" borderId="21" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="28" fillId="0" borderId="22" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="28" fillId="0" borderId="23" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="28" fillId="0" borderId="21" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="28" fillId="0" borderId="22" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="28" fillId="0" borderId="23" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="28" fillId="0" borderId="24" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="26" fillId="33" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="26" fillId="33" borderId="18" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="26" fillId="33" borderId="19" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="24" fillId="34" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="29" fillId="34" borderId="27" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="29" fillId="34" borderId="28" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="29" fillId="34" borderId="29" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="24" fillId="34" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="24" fillId="34" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="24" fillId="34" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="29" fillId="34" borderId="33" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="29" fillId="34" borderId="34" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="29" fillId="34" borderId="35" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="24" fillId="34" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="24" fillId="34" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="24" fillId="34" borderId="36" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="30" fillId="34" borderId="37" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="23" fillId="0" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="23" fillId="0" borderId="39" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="23" fillId="0" borderId="40" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="24" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf fontId="31" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2137,17 +2181,296 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2354,1581 +2677,1579 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:W67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0" zoomScale="85">
+      <selection activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="19.0916666666667" style="2" customWidth="1"/>
-    <col min="3" max="20" width="7.70833333333333" style="2" customWidth="1"/>
-    <col min="21" max="32" width="6.725" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="2"/>
+    <col min="1" max="1" style="1" width="9"/>
+    <col customWidth="1" min="2" max="2" style="1" width="19.091666666666701"/>
+    <col customWidth="1" min="3" max="20" style="1" width="7.7083333333333304"/>
+    <col customWidth="1" min="21" max="32" style="1" width="6.7249999999999996"/>
+    <col min="33" max="16384" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="39.75" customHeight="1" spans="2:20">
-      <c r="B1" s="4" t="s">
+    <row customFormat="1" ht="39.75" customHeight="1" r="1" s="2">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="2:23">
-      <c r="B2" s="5" t="str">
+    <row ht="21" customHeight="1" r="2">
+      <c r="B2" s="4" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C2" s="5" t="str">
         <f>IF(_auto_day_shift!A30="","",_auto_day_shift!A30)</f>
         <v/>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="40" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B3" s="8" t="s">
+    <row ht="18.75" customHeight="1" r="3">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="9" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="46"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="13"/>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B4" s="12" t="s">
+    <row ht="18.75" customHeight="1" r="4">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="str">
+      <c r="C4" s="15" t="str">
         <f>IF(_name_day_shift!A2="","",_name_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="41" t="str">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18" t="str">
         <f>IF(_name_day_shift!B2="","",_name_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41" t="str">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18" t="str">
         <f>IF(_name_day_shift!C2="","",_name_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="47"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
     </row>
-    <row r="5" ht="18.75" spans="2:22">
-      <c r="B5" s="12" t="s">
+    <row ht="15.75" r="5">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="48" t="s">
+      <c r="T5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="49"/>
+      <c r="V5" s="22"/>
     </row>
-    <row r="6" ht="15" spans="2:20">
-      <c r="B6" s="17" t="s">
+    <row ht="14.25" r="6">
+      <c r="B6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="18" t="str">
+      <c r="C6" s="24" t="str">
         <f>IF(_auto_day_shift!A2="","",_auto_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D6" s="18" t="str">
+      <c r="D6" s="24" t="str">
         <f>IF(_auto_day_shift!B2="","",_auto_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="E6" s="18" t="str">
+      <c r="E6" s="24" t="str">
         <f>IF(_auto_day_shift!C2="","",_auto_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="F6" s="18" t="str">
+      <c r="F6" s="24" t="str">
         <f>IF(_auto_day_shift!D2="","",_auto_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="G6" s="18" t="str">
+      <c r="G6" s="24" t="str">
         <f>IF(_auto_day_shift!E2="","",_auto_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="H6" s="18" t="str">
+      <c r="H6" s="24" t="str">
         <f>IF(_auto_day_shift!F2="","",_auto_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="18" t="str">
+      <c r="I6" s="24" t="str">
         <f>IF(_auto_day_shift!G2="","",_auto_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="18" t="str">
+      <c r="J6" s="24" t="str">
         <f>IF(_auto_day_shift!H2="","",_auto_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="K6" s="18" t="str">
+      <c r="K6" s="24" t="str">
         <f>IF(_auto_day_shift!I2="","",_auto_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="L6" s="18" t="str">
+      <c r="L6" s="24" t="str">
         <f>IF(_auto_day_shift!J2="","",_auto_day_shift!J2)</f>
         <v/>
       </c>
-      <c r="M6" s="18" t="str">
+      <c r="M6" s="24" t="str">
         <f>IF(_auto_day_shift!K2="","",_auto_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="N6" s="18" t="str">
+      <c r="N6" s="24" t="str">
         <f>IF(_auto_day_shift!L2="","",_auto_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="O6" s="18" t="str">
+      <c r="O6" s="24" t="str">
         <f>IF(_auto_day_shift!M2="","",_auto_day_shift!M2)</f>
         <v/>
       </c>
-      <c r="P6" s="18" t="str">
+      <c r="P6" s="24" t="str">
         <f>IF(_auto_day_shift!N2="","",_auto_day_shift!N2)</f>
         <v/>
       </c>
-      <c r="Q6" s="18" t="str">
+      <c r="Q6" s="24" t="str">
         <f>IF(_auto_day_shift!O2="","",_auto_day_shift!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="18" t="str">
+      <c r="R6" s="24" t="str">
         <f>IF(_auto_day_shift!P2="","",_auto_day_shift!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="18" t="str">
+      <c r="S6" s="24" t="str">
         <f>IF(_auto_day_shift!Q2="","",_auto_day_shift!Q2)</f>
         <v/>
       </c>
-      <c r="T6" s="50" t="str">
+      <c r="T6" s="25" t="str">
         <f>IF(_auto_day_shift!R2="","",_auto_day_shift!R2)</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="2:20">
-      <c r="B7" s="17" t="s">
+    <row ht="14.25" r="7">
+      <c r="B7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="19" t="str">
+      <c r="C7" s="26" t="str">
         <f>IF(_auto_day_shift!A4="","",_auto_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="D7" s="19" t="str">
+      <c r="D7" s="26" t="str">
         <f>IF(_auto_day_shift!B4="","",_auto_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="E7" s="19" t="str">
+      <c r="E7" s="26" t="str">
         <f>IF(_auto_day_shift!C4="","",_auto_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F7" s="26" t="str">
         <f>IF(_auto_day_shift!D4="","",_auto_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="G7" s="19" t="str">
+      <c r="G7" s="26" t="str">
         <f>IF(_auto_day_shift!E4="","",_auto_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="H7" s="19" t="str">
+      <c r="H7" s="26" t="str">
         <f>IF(_auto_day_shift!F4="","",_auto_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="I7" s="19" t="str">
+      <c r="I7" s="26" t="str">
         <f>IF(_auto_day_shift!G4="","",_auto_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="J7" s="19" t="str">
+      <c r="J7" s="26" t="str">
         <f>IF(_auto_day_shift!H4="","",_auto_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="K7" s="19" t="str">
+      <c r="K7" s="26" t="str">
         <f>IF(_auto_day_shift!I4="","",_auto_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="L7" s="19" t="str">
+      <c r="L7" s="26" t="str">
         <f>IF(_auto_day_shift!J4="","",_auto_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="M7" s="19" t="str">
+      <c r="M7" s="26" t="str">
         <f>IF(_auto_day_shift!K4="","",_auto_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="N7" s="19" t="str">
+      <c r="N7" s="26" t="str">
         <f>IF(_auto_day_shift!L4="","",_auto_day_shift!L4)</f>
         <v/>
       </c>
-      <c r="O7" s="19" t="str">
+      <c r="O7" s="26" t="str">
         <f>IF(_auto_day_shift!M4="","",_auto_day_shift!M4)</f>
         <v/>
       </c>
-      <c r="P7" s="19" t="str">
+      <c r="P7" s="26" t="str">
         <f>IF(_auto_day_shift!N4="","",_auto_day_shift!N4)</f>
         <v/>
       </c>
-      <c r="Q7" s="19" t="str">
+      <c r="Q7" s="26" t="str">
         <f>IF(_auto_day_shift!O4="","",_auto_day_shift!O4)</f>
         <v/>
       </c>
-      <c r="R7" s="19" t="str">
+      <c r="R7" s="26" t="str">
         <f>IF(_auto_day_shift!P4="","",_auto_day_shift!P4)</f>
         <v/>
       </c>
-      <c r="S7" s="19" t="str">
+      <c r="S7" s="26" t="str">
         <f>IF(_auto_day_shift!Q4="","",_auto_day_shift!Q4)</f>
         <v/>
       </c>
-      <c r="T7" s="51" t="str">
+      <c r="T7" s="27" t="str">
         <f>IF(_auto_day_shift!R4="","",_auto_day_shift!R4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="2:20">
-      <c r="B8" s="17" t="s">
+    <row ht="14.25" r="8">
+      <c r="B8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="20" t="str">
+      <c r="C8" s="28" t="str">
         <f>IF(_auto_day_shift!A6="","",_auto_day_shift!A6)</f>
         <v/>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="28" t="str">
         <f>IF(_auto_day_shift!B6="","",_auto_day_shift!B6)</f>
         <v/>
       </c>
-      <c r="E8" s="20" t="str">
+      <c r="E8" s="28" t="str">
         <f>IF(_auto_day_shift!C6="","",_auto_day_shift!C6)</f>
         <v/>
       </c>
-      <c r="F8" s="20" t="str">
+      <c r="F8" s="28" t="str">
         <f>IF(_auto_day_shift!D6="","",_auto_day_shift!D6)</f>
         <v/>
       </c>
-      <c r="G8" s="20" t="str">
+      <c r="G8" s="28" t="str">
         <f>IF(_auto_day_shift!E6="","",_auto_day_shift!E6)</f>
         <v/>
       </c>
-      <c r="H8" s="20" t="str">
+      <c r="H8" s="28" t="str">
         <f>IF(_auto_day_shift!F6="","",_auto_day_shift!F6)</f>
         <v/>
       </c>
-      <c r="I8" s="20" t="str">
+      <c r="I8" s="28" t="str">
         <f>IF(_auto_day_shift!G6="","",_auto_day_shift!G6)</f>
         <v/>
       </c>
-      <c r="J8" s="20" t="str">
+      <c r="J8" s="28" t="str">
         <f>IF(_auto_day_shift!H6="","",_auto_day_shift!H6)</f>
         <v/>
       </c>
-      <c r="K8" s="20" t="str">
+      <c r="K8" s="28" t="str">
         <f>IF(_auto_day_shift!I6="","",_auto_day_shift!I6)</f>
         <v/>
       </c>
-      <c r="L8" s="20" t="str">
+      <c r="L8" s="28" t="str">
         <f>IF(_auto_day_shift!J6="","",_auto_day_shift!J6)</f>
         <v/>
       </c>
-      <c r="M8" s="20" t="str">
+      <c r="M8" s="28" t="str">
         <f>IF(_auto_day_shift!K6="","",_auto_day_shift!K6)</f>
         <v/>
       </c>
-      <c r="N8" s="20" t="str">
+      <c r="N8" s="28" t="str">
         <f>IF(_auto_day_shift!L6="","",_auto_day_shift!L6)</f>
         <v/>
       </c>
-      <c r="O8" s="20" t="str">
+      <c r="O8" s="28" t="str">
         <f>IF(_auto_day_shift!M6="","",_auto_day_shift!M6)</f>
         <v/>
       </c>
-      <c r="P8" s="20" t="str">
+      <c r="P8" s="28" t="str">
         <f>IF(_auto_day_shift!N6="","",_auto_day_shift!N6)</f>
         <v/>
       </c>
-      <c r="Q8" s="20" t="str">
+      <c r="Q8" s="28" t="str">
         <f>IF(_auto_day_shift!O6="","",_auto_day_shift!O6)</f>
         <v/>
       </c>
-      <c r="R8" s="20" t="str">
+      <c r="R8" s="28" t="str">
         <f>IF(_auto_day_shift!P6="","",_auto_day_shift!P6)</f>
         <v/>
       </c>
-      <c r="S8" s="20" t="str">
+      <c r="S8" s="28" t="str">
         <f>IF(_auto_day_shift!Q6="","",_auto_day_shift!Q6)</f>
         <v/>
       </c>
-      <c r="T8" s="52" t="str">
+      <c r="T8" s="29" t="str">
         <f>IF(_auto_day_shift!R6="","",_auto_day_shift!R6)</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="2:20">
-      <c r="B9" s="17" t="s">
+    <row ht="14.25" r="9">
+      <c r="B9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="19" t="str">
+      <c r="C9" s="26" t="str">
         <f>IF(_auto_day_shift!A8="","",_auto_day_shift!A8)</f>
         <v/>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="26" t="str">
         <f>IF(_auto_day_shift!B8="","",_auto_day_shift!B8)</f>
         <v/>
       </c>
-      <c r="E9" s="19" t="str">
+      <c r="E9" s="26" t="str">
         <f>IF(_auto_day_shift!C8="","",_auto_day_shift!C8)</f>
         <v/>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="26" t="str">
         <f>IF(_auto_day_shift!D8="","",_auto_day_shift!D8)</f>
         <v/>
       </c>
-      <c r="G9" s="19" t="str">
+      <c r="G9" s="26" t="str">
         <f>IF(_auto_day_shift!E8="","",_auto_day_shift!E8)</f>
         <v/>
       </c>
-      <c r="H9" s="19" t="str">
+      <c r="H9" s="26" t="str">
         <f>IF(_auto_day_shift!F8="","",_auto_day_shift!F8)</f>
         <v/>
       </c>
-      <c r="I9" s="19" t="str">
+      <c r="I9" s="26" t="str">
         <f>IF(_auto_day_shift!G8="","",_auto_day_shift!G8)</f>
         <v/>
       </c>
-      <c r="J9" s="19" t="str">
+      <c r="J9" s="26" t="str">
         <f>IF(_auto_day_shift!H8="","",_auto_day_shift!H8)</f>
         <v/>
       </c>
-      <c r="K9" s="19" t="str">
+      <c r="K9" s="26" t="str">
         <f>IF(_auto_day_shift!I8="","",_auto_day_shift!I8)</f>
         <v/>
       </c>
-      <c r="L9" s="19" t="str">
+      <c r="L9" s="26" t="str">
         <f>IF(_auto_day_shift!J8="","",_auto_day_shift!J8)</f>
         <v/>
       </c>
-      <c r="M9" s="19" t="str">
+      <c r="M9" s="26" t="str">
         <f>IF(_auto_day_shift!K8="","",_auto_day_shift!K8)</f>
         <v/>
       </c>
-      <c r="N9" s="19" t="str">
+      <c r="N9" s="26" t="str">
         <f>IF(_auto_day_shift!L8="","",_auto_day_shift!L8)</f>
         <v/>
       </c>
-      <c r="O9" s="19" t="str">
+      <c r="O9" s="26" t="str">
         <f>IF(_auto_day_shift!M8="","",_auto_day_shift!M8)</f>
         <v/>
       </c>
-      <c r="P9" s="19" t="str">
+      <c r="P9" s="26" t="str">
         <f>IF(_auto_day_shift!N8="","",_auto_day_shift!N8)</f>
         <v/>
       </c>
-      <c r="Q9" s="19" t="str">
+      <c r="Q9" s="26" t="str">
         <f>IF(_auto_day_shift!O8="","",_auto_day_shift!O8)</f>
         <v/>
       </c>
-      <c r="R9" s="19" t="str">
+      <c r="R9" s="26" t="str">
         <f>IF(_auto_day_shift!P8="","",_auto_day_shift!P8)</f>
         <v/>
       </c>
-      <c r="S9" s="19" t="str">
+      <c r="S9" s="26" t="str">
         <f>IF(_auto_day_shift!Q8="","",_auto_day_shift!Q8)</f>
         <v/>
       </c>
-      <c r="T9" s="51" t="str">
+      <c r="T9" s="27" t="str">
         <f>IF(_auto_day_shift!R8="","",_auto_day_shift!R8)</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B10" s="21" t="s">
+    <row ht="18.75" customHeight="1" r="10">
+      <c r="B10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="31">
         <f>SUM(C9:H9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34">
         <f>SUM(I9:N9)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="25">
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="34">
         <f>SUM(O9:T9)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="53"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="37"/>
     </row>
-    <row r="11" ht="18.75" spans="2:20">
-      <c r="B11" s="8" t="s">
+    <row ht="15.75" r="11">
+      <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="9" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="9" t="s">
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="46"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="13"/>
     </row>
-    <row r="12" ht="18.75" spans="2:20">
-      <c r="B12" s="12" t="s">
+    <row ht="14.25" r="12">
+      <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="13" t="str">
+      <c r="C12" s="15" t="str">
         <f>IF(_name_day_shift!D2="","",_name_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="41" t="str">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18" t="str">
         <f>IF(_name_day_shift!E2="","",_name_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41" t="str">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18" t="str">
         <f>IF(_name_day_shift!F2="","",_name_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="47"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="19"/>
     </row>
-    <row r="13" ht="18.75" spans="2:20">
-      <c r="B13" s="12" t="s">
+    <row ht="15.75" r="13">
+      <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="P13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="Q13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="R13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="S13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="T13" s="48" t="s">
+      <c r="T13" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="2:20">
-      <c r="B14" s="17" t="s">
+    <row ht="14.25" r="14">
+      <c r="B14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="18" t="str">
+      <c r="C14" s="24" t="str">
         <f>IF(_auto_day_shift!A10="","",_auto_day_shift!A10)</f>
         <v/>
       </c>
-      <c r="D14" s="18" t="str">
+      <c r="D14" s="24" t="str">
         <f>IF(_auto_day_shift!B10="","",_auto_day_shift!B10)</f>
         <v/>
       </c>
-      <c r="E14" s="18" t="str">
+      <c r="E14" s="24" t="str">
         <f>IF(_auto_day_shift!C10="","",_auto_day_shift!C10)</f>
         <v/>
       </c>
-      <c r="F14" s="18" t="str">
+      <c r="F14" s="24" t="str">
         <f>IF(_auto_day_shift!D10="","",_auto_day_shift!D10)</f>
         <v/>
       </c>
-      <c r="G14" s="18" t="str">
+      <c r="G14" s="24" t="str">
         <f>IF(_auto_day_shift!E10="","",_auto_day_shift!E10)</f>
         <v/>
       </c>
-      <c r="H14" s="18" t="str">
+      <c r="H14" s="24" t="str">
         <f>IF(_auto_day_shift!F10="","",_auto_day_shift!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="18" t="str">
+      <c r="I14" s="24" t="str">
         <f>IF(_auto_day_shift!G10="","",_auto_day_shift!G10)</f>
         <v/>
       </c>
-      <c r="J14" s="18" t="str">
+      <c r="J14" s="24" t="str">
         <f>IF(_auto_day_shift!H10="","",_auto_day_shift!H10)</f>
         <v/>
       </c>
-      <c r="K14" s="18" t="str">
+      <c r="K14" s="24" t="str">
         <f>IF(_auto_day_shift!I10="","",_auto_day_shift!I10)</f>
         <v/>
       </c>
-      <c r="L14" s="18" t="str">
+      <c r="L14" s="24" t="str">
         <f>IF(_auto_day_shift!J10="","",_auto_day_shift!J10)</f>
         <v/>
       </c>
-      <c r="M14" s="18" t="str">
+      <c r="M14" s="24" t="str">
         <f>IF(_auto_day_shift!K10="","",_auto_day_shift!K10)</f>
         <v/>
       </c>
-      <c r="N14" s="18" t="str">
+      <c r="N14" s="24" t="str">
         <f>IF(_auto_day_shift!L10="","",_auto_day_shift!L10)</f>
         <v/>
       </c>
-      <c r="O14" s="18" t="str">
+      <c r="O14" s="24" t="str">
         <f>IF(_auto_day_shift!M10="","",_auto_day_shift!M10)</f>
         <v/>
       </c>
-      <c r="P14" s="18" t="str">
+      <c r="P14" s="24" t="str">
         <f>IF(_auto_day_shift!N10="","",_auto_day_shift!N10)</f>
         <v/>
       </c>
-      <c r="Q14" s="18" t="str">
+      <c r="Q14" s="24" t="str">
         <f>IF(_auto_day_shift!O10="","",_auto_day_shift!O10)</f>
         <v/>
       </c>
-      <c r="R14" s="18" t="str">
+      <c r="R14" s="24" t="str">
         <f>IF(_auto_day_shift!P10="","",_auto_day_shift!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="18" t="str">
+      <c r="S14" s="24" t="str">
         <f>IF(_auto_day_shift!Q10="","",_auto_day_shift!Q10)</f>
         <v/>
       </c>
-      <c r="T14" s="50" t="str">
+      <c r="T14" s="25" t="str">
         <f>IF(_auto_day_shift!R10="","",_auto_day_shift!R10)</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="2:20">
-      <c r="B15" s="17" t="s">
+    <row ht="14.25" r="15">
+      <c r="B15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="26" t="str">
         <f>IF(_auto_day_shift!A12="","",_auto_day_shift!A12)</f>
         <v/>
       </c>
-      <c r="D15" s="19" t="str">
+      <c r="D15" s="26" t="str">
         <f>IF(_auto_day_shift!B12="","",_auto_day_shift!B12)</f>
         <v/>
       </c>
-      <c r="E15" s="19" t="str">
+      <c r="E15" s="26" t="str">
         <f>IF(_auto_day_shift!C12="","",_auto_day_shift!C12)</f>
         <v/>
       </c>
-      <c r="F15" s="19" t="str">
+      <c r="F15" s="26" t="str">
         <f>IF(_auto_day_shift!D12="","",_auto_day_shift!D12)</f>
         <v/>
       </c>
-      <c r="G15" s="19" t="str">
+      <c r="G15" s="26" t="str">
         <f>IF(_auto_day_shift!E12="","",_auto_day_shift!E12)</f>
         <v/>
       </c>
-      <c r="H15" s="19" t="str">
+      <c r="H15" s="26" t="str">
         <f>IF(_auto_day_shift!F12="","",_auto_day_shift!F12)</f>
         <v/>
       </c>
-      <c r="I15" s="19" t="str">
+      <c r="I15" s="26" t="str">
         <f>IF(_auto_day_shift!G12="","",_auto_day_shift!G12)</f>
         <v/>
       </c>
-      <c r="J15" s="19" t="str">
+      <c r="J15" s="26" t="str">
         <f>IF(_auto_day_shift!H12="","",_auto_day_shift!H12)</f>
         <v/>
       </c>
-      <c r="K15" s="19" t="str">
+      <c r="K15" s="26" t="str">
         <f>IF(_auto_day_shift!I12="","",_auto_day_shift!I12)</f>
         <v/>
       </c>
-      <c r="L15" s="19" t="str">
+      <c r="L15" s="26" t="str">
         <f>IF(_auto_day_shift!J12="","",_auto_day_shift!J12)</f>
         <v/>
       </c>
-      <c r="M15" s="19" t="str">
+      <c r="M15" s="26" t="str">
         <f>IF(_auto_day_shift!K12="","",_auto_day_shift!K12)</f>
         <v/>
       </c>
-      <c r="N15" s="19" t="str">
+      <c r="N15" s="26" t="str">
         <f>IF(_auto_day_shift!L12="","",_auto_day_shift!L12)</f>
         <v/>
       </c>
-      <c r="O15" s="19" t="str">
+      <c r="O15" s="26" t="str">
         <f>IF(_auto_day_shift!M12="","",_auto_day_shift!M12)</f>
         <v/>
       </c>
-      <c r="P15" s="19" t="str">
+      <c r="P15" s="26" t="str">
         <f>IF(_auto_day_shift!N12="","",_auto_day_shift!N12)</f>
         <v/>
       </c>
-      <c r="Q15" s="19" t="str">
+      <c r="Q15" s="26" t="str">
         <f>IF(_auto_day_shift!O12="","",_auto_day_shift!O12)</f>
         <v/>
       </c>
-      <c r="R15" s="19" t="str">
+      <c r="R15" s="26" t="str">
         <f>IF(_auto_day_shift!P12="","",_auto_day_shift!P12)</f>
         <v/>
       </c>
-      <c r="S15" s="19" t="str">
+      <c r="S15" s="26" t="str">
         <f>IF(_auto_day_shift!Q12="","",_auto_day_shift!Q12)</f>
         <v/>
       </c>
-      <c r="T15" s="51" t="str">
+      <c r="T15" s="27" t="str">
         <f>IF(_auto_day_shift!R12="","",_auto_day_shift!R12)</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="2:20">
-      <c r="B16" s="17" t="s">
+    <row ht="14.25" r="16">
+      <c r="B16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="20" t="str">
+      <c r="C16" s="28" t="str">
         <f>IF(_auto_day_shift!A14="","",_auto_day_shift!A14)</f>
         <v/>
       </c>
-      <c r="D16" s="20" t="str">
+      <c r="D16" s="28" t="str">
         <f>IF(_auto_day_shift!B14="","",_auto_day_shift!B14)</f>
         <v/>
       </c>
-      <c r="E16" s="20" t="str">
+      <c r="E16" s="28" t="str">
         <f>IF(_auto_day_shift!C14="","",_auto_day_shift!C14)</f>
         <v/>
       </c>
-      <c r="F16" s="20" t="str">
+      <c r="F16" s="28" t="str">
         <f>IF(_auto_day_shift!D14="","",_auto_day_shift!D14)</f>
         <v/>
       </c>
-      <c r="G16" s="20" t="str">
+      <c r="G16" s="28" t="str">
         <f>IF(_auto_day_shift!E14="","",_auto_day_shift!E14)</f>
         <v/>
       </c>
-      <c r="H16" s="20" t="str">
+      <c r="H16" s="28" t="str">
         <f>IF(_auto_day_shift!F14="","",_auto_day_shift!F14)</f>
         <v/>
       </c>
-      <c r="I16" s="20" t="str">
+      <c r="I16" s="28" t="str">
         <f>IF(_auto_day_shift!G14="","",_auto_day_shift!G14)</f>
         <v/>
       </c>
-      <c r="J16" s="20" t="str">
+      <c r="J16" s="28" t="str">
         <f>IF(_auto_day_shift!H14="","",_auto_day_shift!H14)</f>
         <v/>
       </c>
-      <c r="K16" s="20" t="str">
+      <c r="K16" s="28" t="str">
         <f>IF(_auto_day_shift!I14="","",_auto_day_shift!I14)</f>
         <v/>
       </c>
-      <c r="L16" s="20" t="str">
+      <c r="L16" s="28" t="str">
         <f>IF(_auto_day_shift!J14="","",_auto_day_shift!J14)</f>
         <v/>
       </c>
-      <c r="M16" s="20" t="str">
+      <c r="M16" s="28" t="str">
         <f>IF(_auto_day_shift!K14="","",_auto_day_shift!K14)</f>
         <v/>
       </c>
-      <c r="N16" s="20" t="str">
+      <c r="N16" s="28" t="str">
         <f>IF(_auto_day_shift!L14="","",_auto_day_shift!L14)</f>
         <v/>
       </c>
-      <c r="O16" s="20" t="str">
+      <c r="O16" s="28" t="str">
         <f>IF(_auto_day_shift!M14="","",_auto_day_shift!M14)</f>
         <v/>
       </c>
-      <c r="P16" s="20" t="str">
+      <c r="P16" s="28" t="str">
         <f>IF(_auto_day_shift!N14="","",_auto_day_shift!N14)</f>
         <v/>
       </c>
-      <c r="Q16" s="20" t="str">
+      <c r="Q16" s="28" t="str">
         <f>IF(_auto_day_shift!O14="","",_auto_day_shift!O14)</f>
         <v/>
       </c>
-      <c r="R16" s="20" t="str">
+      <c r="R16" s="28" t="str">
         <f>IF(_auto_day_shift!P14="","",_auto_day_shift!P14)</f>
         <v/>
       </c>
-      <c r="S16" s="20" t="str">
+      <c r="S16" s="28" t="str">
         <f>IF(_auto_day_shift!Q14="","",_auto_day_shift!Q14)</f>
         <v/>
       </c>
-      <c r="T16" s="52" t="str">
+      <c r="T16" s="29" t="str">
         <f>IF(_auto_day_shift!R14="","",_auto_day_shift!R14)</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="2:20">
-      <c r="B17" s="17" t="s">
+    <row ht="14.25" r="17">
+      <c r="B17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="19" t="str">
+      <c r="C17" s="26" t="str">
         <f>IF(_auto_day_shift!A16="","",_auto_day_shift!A16)</f>
         <v/>
       </c>
-      <c r="D17" s="19" t="str">
+      <c r="D17" s="26" t="str">
         <f>IF(_auto_day_shift!B16="","",_auto_day_shift!B16)</f>
         <v/>
       </c>
-      <c r="E17" s="19" t="str">
+      <c r="E17" s="26" t="str">
         <f>IF(_auto_day_shift!C16="","",_auto_day_shift!C16)</f>
         <v/>
       </c>
-      <c r="F17" s="19" t="str">
+      <c r="F17" s="26" t="str">
         <f>IF(_auto_day_shift!D16="","",_auto_day_shift!D16)</f>
         <v/>
       </c>
-      <c r="G17" s="19" t="str">
+      <c r="G17" s="26" t="str">
         <f>IF(_auto_day_shift!E16="","",_auto_day_shift!E16)</f>
         <v/>
       </c>
-      <c r="H17" s="19" t="str">
+      <c r="H17" s="26" t="str">
         <f>IF(_auto_day_shift!F16="","",_auto_day_shift!F16)</f>
         <v/>
       </c>
-      <c r="I17" s="19" t="str">
+      <c r="I17" s="26" t="str">
         <f>IF(_auto_day_shift!G16="","",_auto_day_shift!G16)</f>
         <v/>
       </c>
-      <c r="J17" s="19" t="str">
+      <c r="J17" s="26" t="str">
         <f>IF(_auto_day_shift!H16="","",_auto_day_shift!H16)</f>
         <v/>
       </c>
-      <c r="K17" s="19" t="str">
+      <c r="K17" s="26" t="str">
         <f>IF(_auto_day_shift!I16="","",_auto_day_shift!I16)</f>
         <v/>
       </c>
-      <c r="L17" s="19" t="str">
+      <c r="L17" s="26" t="str">
         <f>IF(_auto_day_shift!J16="","",_auto_day_shift!J16)</f>
         <v/>
       </c>
-      <c r="M17" s="19" t="str">
+      <c r="M17" s="26" t="str">
         <f>IF(_auto_day_shift!K16="","",_auto_day_shift!K16)</f>
         <v/>
       </c>
-      <c r="N17" s="19" t="str">
+      <c r="N17" s="26" t="str">
         <f>IF(_auto_day_shift!L16="","",_auto_day_shift!L16)</f>
         <v/>
       </c>
-      <c r="O17" s="19" t="str">
+      <c r="O17" s="26" t="str">
         <f>IF(_auto_day_shift!M16="","",_auto_day_shift!M16)</f>
         <v/>
       </c>
-      <c r="P17" s="19" t="str">
+      <c r="P17" s="26" t="str">
         <f>IF(_auto_day_shift!N16="","",_auto_day_shift!N16)</f>
         <v/>
       </c>
-      <c r="Q17" s="19" t="str">
+      <c r="Q17" s="26" t="str">
         <f>IF(_auto_day_shift!O16="","",_auto_day_shift!O16)</f>
         <v/>
       </c>
-      <c r="R17" s="19" t="str">
+      <c r="R17" s="26" t="str">
         <f>IF(_auto_day_shift!P16="","",_auto_day_shift!P16)</f>
         <v/>
       </c>
-      <c r="S17" s="19" t="str">
+      <c r="S17" s="26" t="str">
         <f>IF(_auto_day_shift!Q16="","",_auto_day_shift!Q16)</f>
         <v/>
       </c>
-      <c r="T17" s="51" t="str">
+      <c r="T17" s="27" t="str">
         <f>IF(_auto_day_shift!R16="","",_auto_day_shift!R16)</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B18" s="21" t="s">
+    <row ht="18.75" customHeight="1" r="18">
+      <c r="B18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="34">
         <f>SUM(C17:H17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="25">
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="34">
         <f>SUM(I17:N17)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="25">
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="34">
         <f>SUM(O17:T17)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="53"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="37"/>
     </row>
-    <row r="19" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B19" s="8" t="s">
+    <row ht="18.75" customHeight="1" r="19">
+      <c r="B19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="9" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="9" t="s">
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="46"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="13"/>
     </row>
-    <row r="20" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B20" s="12" t="s">
+    <row ht="18.75" customHeight="1" r="20">
+      <c r="B20" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="13" t="str">
+      <c r="C20" s="15" t="str">
         <f>IF(_name_day_shift!G2="","",_name_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="13" t="str">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="15" t="str">
         <f>IF(_name_day_shift!H2="","",_name_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="13" t="str">
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="15" t="str">
         <f>IF(_name_day_shift!I2="","",_name_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="54"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="38"/>
     </row>
-    <row r="21" ht="18.75" spans="2:20">
-      <c r="B21" s="12" t="s">
+    <row ht="15.75" r="21">
+      <c r="B21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="28" t="s">
+      <c r="K21" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="N21" s="28" t="s">
+      <c r="N21" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="O21" s="28" t="s">
+      <c r="O21" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="P21" s="28" t="s">
+      <c r="P21" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="Q21" s="28" t="s">
+      <c r="Q21" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="R21" s="28" t="s">
+      <c r="R21" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="S21" s="28" t="s">
+      <c r="S21" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="T21" s="55" t="s">
+      <c r="T21" s="40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="2:20">
-      <c r="B22" s="17" t="s">
+    <row ht="14.25" r="22">
+      <c r="B22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="18" t="str">
+      <c r="C22" s="24" t="str">
         <f>IF(_auto_day_shift!A18="","",_auto_day_shift!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="18" t="str">
+      <c r="D22" s="24" t="str">
         <f>IF(_auto_day_shift!B18="","",_auto_day_shift!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="18" t="str">
+      <c r="E22" s="24" t="str">
         <f>IF(_auto_day_shift!C18="","",_auto_day_shift!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="18" t="str">
+      <c r="F22" s="24" t="str">
         <f>IF(_auto_day_shift!D18="","",_auto_day_shift!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="18" t="str">
+      <c r="G22" s="24" t="str">
         <f>IF(_auto_day_shift!E18="","",_auto_day_shift!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="18" t="str">
+      <c r="H22" s="24" t="str">
         <f>IF(_auto_day_shift!F18="","",_auto_day_shift!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="18" t="str">
+      <c r="I22" s="24" t="str">
         <f>IF(_auto_day_shift!G18="","",_auto_day_shift!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="18" t="str">
+      <c r="J22" s="24" t="str">
         <f>IF(_auto_day_shift!H18="","",_auto_day_shift!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="18" t="str">
+      <c r="K22" s="24" t="str">
         <f>IF(_auto_day_shift!I18="","",_auto_day_shift!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="18" t="str">
+      <c r="L22" s="24" t="str">
         <f>IF(_auto_day_shift!J18="","",_auto_day_shift!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="18" t="str">
+      <c r="M22" s="24" t="str">
         <f>IF(_auto_day_shift!K18="","",_auto_day_shift!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="18" t="str">
+      <c r="N22" s="24" t="str">
         <f>IF(_auto_day_shift!L18="","",_auto_day_shift!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="18" t="str">
+      <c r="O22" s="24" t="str">
         <f>IF(_auto_day_shift!M18="","",_auto_day_shift!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="18" t="str">
+      <c r="P22" s="24" t="str">
         <f>IF(_auto_day_shift!N18="","",_auto_day_shift!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="18" t="str">
+      <c r="Q22" s="24" t="str">
         <f>IF(_auto_day_shift!O18="","",_auto_day_shift!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="18" t="str">
+      <c r="R22" s="24" t="str">
         <f>IF(_auto_day_shift!P18="","",_auto_day_shift!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="18" t="str">
+      <c r="S22" s="24" t="str">
         <f>IF(_auto_day_shift!Q18="","",_auto_day_shift!Q18)</f>
         <v/>
       </c>
-      <c r="T22" s="50" t="str">
+      <c r="T22" s="25" t="str">
         <f>IF(_auto_day_shift!R18="","",_auto_day_shift!R18)</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="2:20">
-      <c r="B23" s="17" t="s">
+    <row ht="14.25" r="23">
+      <c r="B23" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="19" t="str">
+      <c r="C23" s="26" t="str">
         <f>IF(_auto_day_shift!A20="","",_auto_day_shift!A20)</f>
         <v/>
       </c>
-      <c r="D23" s="19" t="str">
+      <c r="D23" s="26" t="str">
         <f>IF(_auto_day_shift!B20="","",_auto_day_shift!B20)</f>
         <v/>
       </c>
-      <c r="E23" s="19" t="str">
+      <c r="E23" s="26" t="str">
         <f>IF(_auto_day_shift!C20="","",_auto_day_shift!C20)</f>
         <v/>
       </c>
-      <c r="F23" s="19" t="str">
+      <c r="F23" s="26" t="str">
         <f>IF(_auto_day_shift!D20="","",_auto_day_shift!D20)</f>
         <v/>
       </c>
-      <c r="G23" s="19" t="str">
+      <c r="G23" s="26" t="str">
         <f>IF(_auto_day_shift!E20="","",_auto_day_shift!E20)</f>
         <v/>
       </c>
-      <c r="H23" s="19" t="str">
+      <c r="H23" s="26" t="str">
         <f>IF(_auto_day_shift!F20="","",_auto_day_shift!F20)</f>
         <v/>
       </c>
-      <c r="I23" s="19" t="str">
+      <c r="I23" s="26" t="str">
         <f>IF(_auto_day_shift!G20="","",_auto_day_shift!G20)</f>
         <v/>
       </c>
-      <c r="J23" s="19" t="str">
+      <c r="J23" s="26" t="str">
         <f>IF(_auto_day_shift!H20="","",_auto_day_shift!H20)</f>
         <v/>
       </c>
-      <c r="K23" s="19" t="str">
+      <c r="K23" s="26" t="str">
         <f>IF(_auto_day_shift!I20="","",_auto_day_shift!I20)</f>
         <v/>
       </c>
-      <c r="L23" s="19" t="str">
+      <c r="L23" s="26" t="str">
         <f>IF(_auto_day_shift!J20="","",_auto_day_shift!J20)</f>
         <v/>
       </c>
-      <c r="M23" s="19" t="str">
+      <c r="M23" s="26" t="str">
         <f>IF(_auto_day_shift!K20="","",_auto_day_shift!K20)</f>
         <v/>
       </c>
-      <c r="N23" s="19" t="str">
+      <c r="N23" s="26" t="str">
         <f>IF(_auto_day_shift!L20="","",_auto_day_shift!L20)</f>
         <v/>
       </c>
-      <c r="O23" s="19" t="str">
+      <c r="O23" s="26" t="str">
         <f>IF(_auto_day_shift!M20="","",_auto_day_shift!M20)</f>
         <v/>
       </c>
-      <c r="P23" s="19" t="str">
+      <c r="P23" s="26" t="str">
         <f>IF(_auto_day_shift!N20="","",_auto_day_shift!N20)</f>
         <v/>
       </c>
-      <c r="Q23" s="19" t="str">
+      <c r="Q23" s="26" t="str">
         <f>IF(_auto_day_shift!O20="","",_auto_day_shift!O20)</f>
         <v/>
       </c>
-      <c r="R23" s="19" t="str">
+      <c r="R23" s="26" t="str">
         <f>IF(_auto_day_shift!P20="","",_auto_day_shift!P20)</f>
         <v/>
       </c>
-      <c r="S23" s="19" t="str">
+      <c r="S23" s="26" t="str">
         <f>IF(_auto_day_shift!Q20="","",_auto_day_shift!Q20)</f>
         <v/>
       </c>
-      <c r="T23" s="51" t="str">
+      <c r="T23" s="27" t="str">
         <f>IF(_auto_day_shift!R20="","",_auto_day_shift!R20)</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15.75" spans="2:20">
-      <c r="B24" s="17" t="s">
+    <row ht="14.25" r="24">
+      <c r="B24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="20" t="str">
+      <c r="C24" s="28" t="str">
         <f>IF(_auto_day_shift!A22="","",_auto_day_shift!A22)</f>
         <v/>
       </c>
-      <c r="D24" s="20" t="str">
+      <c r="D24" s="28" t="str">
         <f>IF(_auto_day_shift!B22="","",_auto_day_shift!B22)</f>
         <v/>
       </c>
-      <c r="E24" s="20" t="str">
+      <c r="E24" s="28" t="str">
         <f>IF(_auto_day_shift!C22="","",_auto_day_shift!C22)</f>
         <v/>
       </c>
-      <c r="F24" s="20" t="str">
+      <c r="F24" s="28" t="str">
         <f>IF(_auto_day_shift!D22="","",_auto_day_shift!D22)</f>
         <v/>
       </c>
-      <c r="G24" s="20" t="str">
+      <c r="G24" s="28" t="str">
         <f>IF(_auto_day_shift!E22="","",_auto_day_shift!E22)</f>
         <v/>
       </c>
-      <c r="H24" s="20" t="str">
+      <c r="H24" s="28" t="str">
         <f>IF(_auto_day_shift!F22="","",_auto_day_shift!F22)</f>
         <v/>
       </c>
-      <c r="I24" s="20" t="str">
+      <c r="I24" s="28" t="str">
         <f>IF(_auto_day_shift!G22="","",_auto_day_shift!G22)</f>
         <v/>
       </c>
-      <c r="J24" s="20" t="str">
+      <c r="J24" s="28" t="str">
         <f>IF(_auto_day_shift!H22="","",_auto_day_shift!H22)</f>
         <v/>
       </c>
-      <c r="K24" s="20" t="str">
+      <c r="K24" s="28" t="str">
         <f>IF(_auto_day_shift!I22="","",_auto_day_shift!I22)</f>
         <v/>
       </c>
-      <c r="L24" s="20" t="str">
+      <c r="L24" s="28" t="str">
         <f>IF(_auto_day_shift!J22="","",_auto_day_shift!J22)</f>
         <v/>
       </c>
-      <c r="M24" s="20" t="str">
+      <c r="M24" s="28" t="str">
         <f>IF(_auto_day_shift!K22="","",_auto_day_shift!K22)</f>
         <v/>
       </c>
-      <c r="N24" s="20" t="str">
+      <c r="N24" s="28" t="str">
         <f>IF(_auto_day_shift!L22="","",_auto_day_shift!L22)</f>
         <v/>
       </c>
-      <c r="O24" s="20" t="str">
+      <c r="O24" s="28" t="str">
         <f>IF(_auto_day_shift!M22="","",_auto_day_shift!M22)</f>
         <v/>
       </c>
-      <c r="P24" s="20" t="str">
+      <c r="P24" s="28" t="str">
         <f>IF(_auto_day_shift!N22="","",_auto_day_shift!N22)</f>
         <v/>
       </c>
-      <c r="Q24" s="20" t="str">
+      <c r="Q24" s="28" t="str">
         <f>IF(_auto_day_shift!O22="","",_auto_day_shift!O22)</f>
         <v/>
       </c>
-      <c r="R24" s="20" t="str">
+      <c r="R24" s="28" t="str">
         <f>IF(_auto_day_shift!P22="","",_auto_day_shift!P22)</f>
         <v/>
       </c>
-      <c r="S24" s="20" t="str">
+      <c r="S24" s="28" t="str">
         <f>IF(_auto_day_shift!Q22="","",_auto_day_shift!Q22)</f>
         <v/>
       </c>
-      <c r="T24" s="52" t="str">
+      <c r="T24" s="29" t="str">
         <f>IF(_auto_day_shift!R22="","",_auto_day_shift!R22)</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="2:20">
-      <c r="B25" s="17" t="s">
+    <row ht="14.25" r="25">
+      <c r="B25" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="19" t="str">
+      <c r="C25" s="26" t="str">
         <f>IF(_auto_day_shift!A24="","",_auto_day_shift!A24)</f>
         <v/>
       </c>
-      <c r="D25" s="19" t="str">
+      <c r="D25" s="26" t="str">
         <f>IF(_auto_day_shift!B24="","",_auto_day_shift!B24)</f>
         <v/>
       </c>
-      <c r="E25" s="19" t="str">
+      <c r="E25" s="26" t="str">
         <f>IF(_auto_day_shift!C24="","",_auto_day_shift!C24)</f>
         <v/>
       </c>
-      <c r="F25" s="19" t="str">
+      <c r="F25" s="26" t="str">
         <f>IF(_auto_day_shift!D24="","",_auto_day_shift!D24)</f>
         <v/>
       </c>
-      <c r="G25" s="19" t="str">
+      <c r="G25" s="26" t="str">
         <f>IF(_auto_day_shift!E24="","",_auto_day_shift!E24)</f>
         <v/>
       </c>
-      <c r="H25" s="19" t="str">
+      <c r="H25" s="26" t="str">
         <f>IF(_auto_day_shift!F24="","",_auto_day_shift!F24)</f>
         <v/>
       </c>
-      <c r="I25" s="19" t="str">
+      <c r="I25" s="26" t="str">
         <f>IF(_auto_day_shift!G24="","",_auto_day_shift!G24)</f>
         <v/>
       </c>
-      <c r="J25" s="19" t="str">
+      <c r="J25" s="26" t="str">
         <f>IF(_auto_day_shift!H24="","",_auto_day_shift!H24)</f>
         <v/>
       </c>
-      <c r="K25" s="19" t="str">
+      <c r="K25" s="26" t="str">
         <f>IF(_auto_day_shift!I24="","",_auto_day_shift!I24)</f>
         <v/>
       </c>
-      <c r="L25" s="19" t="str">
+      <c r="L25" s="26" t="str">
         <f>IF(_auto_day_shift!J24="","",_auto_day_shift!J24)</f>
         <v/>
       </c>
-      <c r="M25" s="19" t="str">
+      <c r="M25" s="26" t="str">
         <f>IF(_auto_day_shift!K24="","",_auto_day_shift!K24)</f>
         <v/>
       </c>
-      <c r="N25" s="19" t="str">
+      <c r="N25" s="26" t="str">
         <f>IF(_auto_day_shift!L24="","",_auto_day_shift!L24)</f>
         <v/>
       </c>
-      <c r="O25" s="19" t="str">
+      <c r="O25" s="26" t="str">
         <f>IF(_auto_day_shift!M24="","",_auto_day_shift!M24)</f>
         <v/>
       </c>
-      <c r="P25" s="19" t="str">
+      <c r="P25" s="26" t="str">
         <f>IF(_auto_day_shift!N24="","",_auto_day_shift!N24)</f>
         <v/>
       </c>
-      <c r="Q25" s="19" t="str">
+      <c r="Q25" s="26" t="str">
         <f>IF(_auto_day_shift!O24="","",_auto_day_shift!O24)</f>
         <v/>
       </c>
-      <c r="R25" s="19" t="str">
+      <c r="R25" s="26" t="str">
         <f>IF(_auto_day_shift!P24="","",_auto_day_shift!P24)</f>
         <v/>
       </c>
-      <c r="S25" s="19" t="str">
+      <c r="S25" s="26" t="str">
         <f>IF(_auto_day_shift!Q24="","",_auto_day_shift!Q24)</f>
         <v/>
       </c>
-      <c r="T25" s="51" t="str">
+      <c r="T25" s="27" t="str">
         <f>IF(_auto_day_shift!R24="","",_auto_day_shift!R24)</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B26" s="21" t="s">
+    <row ht="18.75" customHeight="1" r="26">
+      <c r="B26" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="34">
         <f>SUM(C25:H25)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="25">
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="34">
         <f>SUM(I25:N25)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="25">
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="34">
         <f>SUM(O25:T25)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="53"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="37"/>
     </row>
-    <row r="27" customFormat="1" ht="18.75" customHeight="1" spans="1:20">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30" t="s">
+    <row ht="18.75" customHeight="1" r="27">
+      <c r="A27" s="1"/>
+      <c r="B27" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="31" t="str">
+      <c r="C27" s="42" t="str">
         <f>IF(_auto_day_shift!A26="","",_auto_day_shift!A26)</f>
         <v/>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="42" t="s">
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="31" t="str">
+      <c r="J27" s="46"/>
+      <c r="K27" s="42" t="str">
         <f>IF(_auto_day_shift!B26="","",_auto_day_shift!B26)</f>
         <v/>
       </c>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="42" t="s">
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="31" t="str">
+      <c r="P27" s="46"/>
+      <c r="Q27" s="42" t="str">
         <f>IF(_auto_day_shift!A34="","",_auto_day_shift!A34)</f>
         <v/>
       </c>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="33"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="44"/>
     </row>
-    <row r="28" customFormat="1" ht="18.75" customHeight="1" spans="1:20">
-      <c r="A28" s="29"/>
-      <c r="B28" s="34" t="s">
+    <row ht="18.75" customHeight="1" r="28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="31" t="str">
+      <c r="C28" s="48" t="str">
         <f>IF(_auto_day_shift!A31="","",_auto_day_shift!A31)</f>
         <v/>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="42" t="s">
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="31" t="str">
+      <c r="P28" s="53"/>
+      <c r="Q28" s="48" t="str">
         <f>IF(_auto_day_shift!A32="","",_auto_day_shift!A32)</f>
         <v/>
       </c>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="33"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="50"/>
     </row>
-    <row r="29" ht="77.5" customHeight="1" spans="2:20">
-      <c r="B29" s="35" t="s">
+    <row ht="127.5" customHeight="1" r="29">
+      <c r="B29" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="56"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
     </row>
-    <row r="30" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B30" s="37" t="s">
+    <row ht="18.75" customHeight="1" r="30">
+      <c r="B30" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="37" t="s">
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="39"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="57"/>
     </row>
-    <row r="38" ht="18.75" customHeight="1"/>
-    <row r="47" ht="117" customHeight="1"/>
-    <row r="49" ht="18.75" customHeight="1"/>
-    <row r="58" ht="18.75" customHeight="1"/>
-    <row r="67" ht="135.75" customHeight="1"/>
+    <row ht="18.75" customHeight="1" r="38"/>
+    <row ht="117" customHeight="1" r="47"/>
+    <row ht="18.75" customHeight="1" r="49"/>
+    <row ht="18.75" customHeight="1" r="58"/>
+    <row ht="135.75" customHeight="1" r="67"/>
   </sheetData>
   <mergeCells count="42">
     <mergeCell ref="B1:T1"/>
@@ -3974,778 +4295,773 @@
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="I30:T30"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="45.45" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.45" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.9083333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.9083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.45" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.0916666666667" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col customWidth="1" min="1" max="1" style="1" width="45.450000000000003"/>
+    <col customWidth="1" min="2" max="2" style="1" width="43.450000000000003"/>
+    <col customWidth="1" min="3" max="3" style="1" width="46.908333333333303"/>
+    <col customWidth="1" min="4" max="4" style="1" width="36.908333333333303"/>
+    <col customWidth="1" min="5" max="5" style="1" width="36.450000000000003"/>
+    <col customWidth="1" min="6" max="6" style="1" width="30.091666666666701"/>
+    <col min="7" max="16384" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="2" t="s">
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2" t="s">
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="2" t="s">
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="2" t="s">
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="2" t="s">
+    <row r="11">
+      <c r="A11" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="2" t="s">
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="2" t="s">
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="2" t="s">
+    <row r="17">
+      <c r="A17" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="P17" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R17" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="2" t="s">
+    <row r="19">
+      <c r="A19" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="P19" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R19" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="2" t="s">
+    <row r="21">
+      <c r="A21" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R21" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="2" t="s">
+    <row r="23">
+      <c r="A23" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N23" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P23" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="Q23" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R23" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
+    <row r="25">
+      <c r="A25" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>298</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="58" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>307</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-配煤-自动配煤报表（班）.xlsx
+++ b/excel/finished/焦化/CK67-配煤-自动配煤报表（班）.xlsx
@@ -10,6 +10,7 @@
     <sheet name="_auto_day_shift" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="_name_day_shift" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="_evt_day_shift" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -255,7 +256,7 @@
     <t>交接班情况：</t>
   </si>
   <si>
-    <t xml:space="preserve">交班：                              </t>
+    <t xml:space="preserve">交班：                          </t>
   </si>
   <si>
     <t>接班：</t>
@@ -909,12 +910,6 @@
     <t>CK67_L1R_CB_96CBShiftAmt_1m_avg</t>
   </si>
   <si>
-    <t>CK67_L1R_CB_CBAmtTol_1m_max</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_CBAcTol_1m_avg</t>
-  </si>
-  <si>
     <t>coalSiloName1</t>
   </si>
   <si>
@@ -940,6 +935,12 @@
   </si>
   <si>
     <t>coalSiloName9</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_CBAmtTol_1m_evt</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_CBAcTol_1m_evt</t>
   </si>
 </sst>
 </file>
@@ -953,7 +954,7 @@
     <numFmt numFmtId="163" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -1136,9 +1137,12 @@
       <sz val="12"/>
     </font>
     <font>
-      <name val="Times New Roman"/>
+      <name val="Arial"/>
       <b/>
-      <color theme="1" tint="0"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <sz val="14"/>
     </font>
     <font>
@@ -1353,7 +1357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1811,21 +1815,6 @@
       <left style="medium">
         <color theme="1"/>
       </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -2001,7 +1990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -2116,8 +2105,17 @@
     <xf fontId="24" fillId="34" borderId="36" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="30" fillId="34" borderId="37" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf fontId="30" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf fontId="31" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf fontId="31" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf fontId="23" fillId="0" borderId="37" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf fontId="23" fillId="0" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2125,10 +2123,7 @@
     <xf fontId="23" fillId="0" borderId="39" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="23" fillId="0" borderId="40" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="31" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="32" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2680,7 +2675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="85">
-      <selection activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2808,7 +2803,7 @@
       <c r="S4" s="18"/>
       <c r="T4" s="19"/>
     </row>
-    <row ht="15.75" r="5">
+    <row ht="18.75" r="5">
       <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
@@ -2868,7 +2863,7 @@
       </c>
       <c r="V5" s="22"/>
     </row>
-    <row ht="14.25" r="6">
+    <row ht="15" r="6">
       <c r="B6" s="23" t="s">
         <v>26</v>
       </c>
@@ -2945,7 +2940,7 @@
         <v/>
       </c>
     </row>
-    <row ht="14.25" r="7">
+    <row ht="15.75" r="7">
       <c r="B7" s="23" t="s">
         <v>27</v>
       </c>
@@ -3022,7 +3017,7 @@
         <v/>
       </c>
     </row>
-    <row ht="14.25" r="8">
+    <row ht="15.75" r="8">
       <c r="B8" s="23" t="s">
         <v>28</v>
       </c>
@@ -3099,7 +3094,7 @@
         <v/>
       </c>
     </row>
-    <row ht="14.25" r="9">
+    <row ht="15.75" r="9">
       <c r="B9" s="23" t="s">
         <v>29</v>
       </c>
@@ -3208,7 +3203,7 @@
       <c r="S10" s="35"/>
       <c r="T10" s="37"/>
     </row>
-    <row ht="15.75" r="11">
+    <row ht="18.75" r="11">
       <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
@@ -3237,7 +3232,7 @@
       <c r="S11" s="11"/>
       <c r="T11" s="13"/>
     </row>
-    <row ht="14.25" r="12">
+    <row ht="18.75" r="12">
       <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
@@ -3269,7 +3264,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="19"/>
     </row>
-    <row ht="15.75" r="13">
+    <row ht="18.75" r="13">
       <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
@@ -3328,7 +3323,7 @@
         <v>51</v>
       </c>
     </row>
-    <row ht="14.25" r="14">
+    <row ht="15" r="14">
       <c r="B14" s="23" t="s">
         <v>26</v>
       </c>
@@ -3405,7 +3400,7 @@
         <v/>
       </c>
     </row>
-    <row ht="14.25" r="15">
+    <row ht="15.75" r="15">
       <c r="B15" s="23" t="s">
         <v>27</v>
       </c>
@@ -3482,7 +3477,7 @@
         <v/>
       </c>
     </row>
-    <row ht="14.25" r="16">
+    <row ht="15.75" r="16">
       <c r="B16" s="23" t="s">
         <v>28</v>
       </c>
@@ -3559,7 +3554,7 @@
         <v/>
       </c>
     </row>
-    <row ht="14.25" r="17">
+    <row ht="15.75" r="17">
       <c r="B17" s="23" t="s">
         <v>29</v>
       </c>
@@ -3729,7 +3724,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="38"/>
     </row>
-    <row ht="15.75" r="21">
+    <row ht="18.75" r="21">
       <c r="B21" s="14" t="s">
         <v>7</v>
       </c>
@@ -3788,7 +3783,7 @@
         <v>73</v>
       </c>
     </row>
-    <row ht="14.25" r="22">
+    <row ht="15" r="22">
       <c r="B22" s="23" t="s">
         <v>26</v>
       </c>
@@ -3865,7 +3860,7 @@
         <v/>
       </c>
     </row>
-    <row ht="14.25" r="23">
+    <row ht="15.75" r="23">
       <c r="B23" s="23" t="s">
         <v>27</v>
       </c>
@@ -4134,7 +4129,7 @@
         <v>74</v>
       </c>
       <c r="C27" s="42" t="str">
-        <f>IF(_auto_day_shift!A26="","",_auto_day_shift!A26)</f>
+        <f>IF(_evt_day_shift!A2="","",_evt_day_shift!A2)</f>
         <v/>
       </c>
       <c r="D27" s="43"/>
@@ -4147,7 +4142,7 @@
       </c>
       <c r="J27" s="46"/>
       <c r="K27" s="42" t="str">
-        <f>IF(_auto_day_shift!B26="","",_auto_day_shift!B26)</f>
+        <f>IF(_evt_day_shift!B2="","",_evt_day_shift!B2)</f>
         <v/>
       </c>
       <c r="L27" s="43"/>
@@ -4197,53 +4192,53 @@
       <c r="S28" s="49"/>
       <c r="T28" s="50"/>
     </row>
-    <row ht="127.5" customHeight="1" r="29">
+    <row ht="147" customHeight="1" r="29">
       <c r="B29" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="56"/>
     </row>
     <row ht="18.75" customHeight="1" r="30">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="55" t="s">
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="57"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="59"/>
     </row>
     <row ht="18.75" customHeight="1" r="38"/>
     <row ht="117" customHeight="1" r="47"/>
@@ -4305,7 +4300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4991,14 +4986,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
+    <row r="25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5031,31 +5019,59 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="D1" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="E1" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="G1" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="H1" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="0" t="s">
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="23.875"/>
+    <col customWidth="1" min="2" max="2" width="19"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>307</v>
       </c>
     </row>

--- a/excel/finished/焦化/CK67-配煤-自动配煤报表（班）.xlsx
+++ b/excel/finished/焦化/CK67-配煤-自动配煤报表（班）.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView windowWidth="19935" windowHeight="7785"/>
   </bookViews>
   <sheets>
-    <sheet name="1、自动配煤（班）" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="_auto_day_shift" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="_name_day_shift" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="_evt_day_shift" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="1、自动配煤（班）" sheetId="1" r:id="rId1"/>
+    <sheet name="_auto_day_shift" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
+    <sheet name="_name_day_shift" sheetId="4" r:id="rId4"/>
+    <sheet name="_evt_day_shift" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="313">
   <si>
     <t xml:space="preserve">焦化分厂焦炉配煤自动配煤操作记录       </t>
   </si>
@@ -25,7 +26,7 @@
     <t>编号：SGSSG-BSMCSA35-G001-02A</t>
   </si>
   <si>
-    <t xml:space="preserve">筒    仓</t>
+    <t>筒    仓</t>
   </si>
   <si>
     <t xml:space="preserve">             1＃仓</t>
@@ -40,7 +41,7 @@
     <t>煤种名称</t>
   </si>
   <si>
-    <t xml:space="preserve">料    嘴</t>
+    <t>料    嘴</t>
   </si>
   <si>
     <t>1－1</t>
@@ -251,6 +252,21 @@
   </si>
   <si>
     <t>当班焦油渣量（t）</t>
+  </si>
+  <si>
+    <t>班配煤量累计(t)</t>
+  </si>
+  <si>
+    <t>甲</t>
+  </si>
+  <si>
+    <t>乙</t>
+  </si>
+  <si>
+    <t>丙</t>
+  </si>
+  <si>
+    <t>丁</t>
   </si>
   <si>
     <t>交接班情况：</t>
@@ -946,403 +962,255 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="160" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="161" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="162" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="163" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.7"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF9C0006"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="2"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color theme="0"/>
-      <sz val="11"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color indexed="4"/>
       <sz val="11"/>
-      <u val="single"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color indexed="20"/>
+      <u/>
       <sz val="11"/>
-      <u val="single"/>
+      <color indexed="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color indexed="2"/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="18"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <i/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
-      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
+      <color indexed="65"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <color indexed="65"/>
       <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF006100"/>
+      <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <color theme="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <color theme="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Times New Roman"/>
-      <color theme="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <b/>
-      <color indexed="2"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <b/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <color indexed="64"/>
-      <sz val="9.6999999999999993"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431398"/>
-        <bgColor theme="6" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810496"/>
-        <bgColor theme="6" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241899"/>
-        <bgColor theme="6" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241899"/>
-        <bgColor theme="5" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241899"/>
-        <bgColor theme="4" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241899"/>
-        <bgColor theme="7" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431398"/>
-        <bgColor theme="9" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431398"/>
-        <bgColor theme="8" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431398"/>
-        <bgColor theme="4" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810496"/>
-        <bgColor theme="4" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431398"/>
-        <bgColor theme="5" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810496"/>
-        <bgColor theme="5" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431398"/>
-        <bgColor theme="7" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810496"/>
-        <bgColor theme="7" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810496"/>
-        <bgColor theme="8" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241899"/>
-        <bgColor theme="8" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810496"/>
-        <bgColor theme="9" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241899"/>
-        <bgColor theme="9" tint="0.39997558519241899"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1356,8 +1224,200 @@
         <bgColor indexed="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1366,17 +1426,501 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="medium">
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1399,32 +1943,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1446,15 +1966,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1464,361 +1975,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="medium">
-        <color theme="1"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1827,303 +1994,318 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="46">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="162" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="163" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="6" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="2" numFmtId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="11" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="9" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="47">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="12" fillId="11" borderId="5" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="40">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="13" fillId="11" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="46">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="14" fillId="12" borderId="6" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="13" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="14" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="15" fillId="0" borderId="7" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="16" fillId="0" borderId="8" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="45">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="17" fillId="15" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="18" fillId="16" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="18" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="21" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="22" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="23" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="24" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="25" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="26" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="27" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="28" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="29" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="30" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="31" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="32" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="71">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="23" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="24" fillId="33" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="25" fillId="33" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="25" fillId="33" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="25" fillId="33" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="25" fillId="33" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="24" fillId="33" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="26" fillId="33" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="26" fillId="33" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="26" fillId="33" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="26" fillId="33" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="26" fillId="33" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="26" fillId="33" borderId="18" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="26" fillId="33" borderId="19" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="23" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="24" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="27" fillId="0" borderId="18" numFmtId="164" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="27" fillId="0" borderId="19" numFmtId="164" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="28" fillId="0" borderId="18" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="28" fillId="0" borderId="19" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="28" fillId="0" borderId="18" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="28" fillId="0" borderId="19" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="24" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="28" fillId="0" borderId="21" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="28" fillId="0" borderId="22" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="23" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="21" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="28" fillId="0" borderId="22" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="28" fillId="0" borderId="23" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="28" fillId="0" borderId="24" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="26" fillId="33" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="26" fillId="33" borderId="18" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="26" fillId="33" borderId="19" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="24" fillId="34" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="29" fillId="34" borderId="27" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="29" fillId="34" borderId="28" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="29" fillId="34" borderId="29" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="24" fillId="34" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="24" fillId="34" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="24" fillId="34" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="29" fillId="34" borderId="33" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="29" fillId="34" borderId="34" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="29" fillId="34" borderId="35" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="24" fillId="34" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="24" fillId="34" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="35" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="24" fillId="34" borderId="36" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="30" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf fontId="31" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf fontId="31" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf fontId="23" fillId="0" borderId="37" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="23" fillId="0" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="23" fillId="0" borderId="39" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="32" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2176,296 +2358,17 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2672,77 +2575,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:W68"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85">
-      <selection activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9"/>
-    <col customWidth="1" min="2" max="2" style="1" width="19.091666666666701"/>
-    <col customWidth="1" min="3" max="20" style="1" width="7.7083333333333304"/>
-    <col customWidth="1" min="21" max="32" style="1" width="6.7249999999999996"/>
-    <col min="33" max="16384" style="1" width="9"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19.0916666666667" style="1" customWidth="1"/>
+    <col min="3" max="20" width="7.70833333333333" style="1" customWidth="1"/>
+    <col min="21" max="32" width="6.725" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="39.75" customHeight="1" r="1" s="2">
-      <c r="B1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="39.75" customHeight="1" spans="2:20">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
-    <row ht="21" customHeight="1" r="2">
-      <c r="B2" s="4" t="str">
+    <row r="2" ht="21" customHeight="1" spans="2:23">
+      <c r="B2" s="6" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="7" t="str">
         <f>IF(_auto_day_shift!A30="","",_auto_day_shift!A30)</f>
         <v/>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
     </row>
-    <row ht="18.75" customHeight="1" r="3">
+    <row r="3" ht="18.75" customHeight="1" spans="2:20">
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
@@ -2769,441 +2674,441 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
-      <c r="T3" s="13"/>
+      <c r="T3" s="58"/>
     </row>
-    <row ht="18.75" customHeight="1" r="4">
-      <c r="B4" s="14" t="s">
+    <row r="4" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="15" t="str">
+      <c r="C4" s="14" t="str">
         <f>IF(_name_day_shift!A2="","",_name_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18" t="str">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="50" t="str">
         <f>IF(_name_day_shift!B2="","",_name_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18" t="str">
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50" t="str">
         <f>IF(_name_day_shift!C2="","",_name_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="59"/>
     </row>
-    <row ht="18.75" r="5">
-      <c r="B5" s="14" t="s">
+    <row r="5" ht="18.75" spans="2:22">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="22"/>
+      <c r="V5" s="61"/>
     </row>
-    <row ht="15" r="6">
-      <c r="B6" s="23" t="s">
+    <row r="6" ht="15" spans="2:20">
+      <c r="B6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="24" t="str">
+      <c r="C6" s="19" t="str">
         <f>IF(_auto_day_shift!A2="","",_auto_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D6" s="24" t="str">
+      <c r="D6" s="19" t="str">
         <f>IF(_auto_day_shift!B2="","",_auto_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="E6" s="24" t="str">
+      <c r="E6" s="19" t="str">
         <f>IF(_auto_day_shift!C2="","",_auto_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="F6" s="24" t="str">
+      <c r="F6" s="19" t="str">
         <f>IF(_auto_day_shift!D2="","",_auto_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="G6" s="24" t="str">
+      <c r="G6" s="19" t="str">
         <f>IF(_auto_day_shift!E2="","",_auto_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="H6" s="24" t="str">
+      <c r="H6" s="19" t="str">
         <f>IF(_auto_day_shift!F2="","",_auto_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="24" t="str">
+      <c r="I6" s="19" t="str">
         <f>IF(_auto_day_shift!G2="","",_auto_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="24" t="str">
+      <c r="J6" s="19" t="str">
         <f>IF(_auto_day_shift!H2="","",_auto_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="K6" s="24" t="str">
+      <c r="K6" s="19" t="str">
         <f>IF(_auto_day_shift!I2="","",_auto_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="L6" s="24" t="str">
+      <c r="L6" s="19" t="str">
         <f>IF(_auto_day_shift!J2="","",_auto_day_shift!J2)</f>
         <v/>
       </c>
-      <c r="M6" s="24" t="str">
+      <c r="M6" s="19" t="str">
         <f>IF(_auto_day_shift!K2="","",_auto_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="N6" s="24" t="str">
+      <c r="N6" s="19" t="str">
         <f>IF(_auto_day_shift!L2="","",_auto_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="O6" s="24" t="str">
+      <c r="O6" s="19" t="str">
         <f>IF(_auto_day_shift!M2="","",_auto_day_shift!M2)</f>
         <v/>
       </c>
-      <c r="P6" s="24" t="str">
+      <c r="P6" s="19" t="str">
         <f>IF(_auto_day_shift!N2="","",_auto_day_shift!N2)</f>
         <v/>
       </c>
-      <c r="Q6" s="24" t="str">
+      <c r="Q6" s="19" t="str">
         <f>IF(_auto_day_shift!O2="","",_auto_day_shift!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="24" t="str">
+      <c r="R6" s="19" t="str">
         <f>IF(_auto_day_shift!P2="","",_auto_day_shift!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="24" t="str">
+      <c r="S6" s="19" t="str">
         <f>IF(_auto_day_shift!Q2="","",_auto_day_shift!Q2)</f>
         <v/>
       </c>
-      <c r="T6" s="25" t="str">
+      <c r="T6" s="62" t="str">
         <f>IF(_auto_day_shift!R2="","",_auto_day_shift!R2)</f>
         <v/>
       </c>
     </row>
-    <row ht="15.75" r="7">
-      <c r="B7" s="23" t="s">
+    <row r="7" ht="15.75" spans="2:20">
+      <c r="B7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="26" t="str">
+      <c r="C7" s="20" t="str">
         <f>IF(_auto_day_shift!A4="","",_auto_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="D7" s="26" t="str">
+      <c r="D7" s="20" t="str">
         <f>IF(_auto_day_shift!B4="","",_auto_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="E7" s="26" t="str">
+      <c r="E7" s="20" t="str">
         <f>IF(_auto_day_shift!C4="","",_auto_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="F7" s="26" t="str">
+      <c r="F7" s="20" t="str">
         <f>IF(_auto_day_shift!D4="","",_auto_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="G7" s="26" t="str">
+      <c r="G7" s="20" t="str">
         <f>IF(_auto_day_shift!E4="","",_auto_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="H7" s="26" t="str">
+      <c r="H7" s="20" t="str">
         <f>IF(_auto_day_shift!F4="","",_auto_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="I7" s="26" t="str">
+      <c r="I7" s="20" t="str">
         <f>IF(_auto_day_shift!G4="","",_auto_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="J7" s="26" t="str">
+      <c r="J7" s="20" t="str">
         <f>IF(_auto_day_shift!H4="","",_auto_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="K7" s="26" t="str">
+      <c r="K7" s="20" t="str">
         <f>IF(_auto_day_shift!I4="","",_auto_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="L7" s="26" t="str">
+      <c r="L7" s="20" t="str">
         <f>IF(_auto_day_shift!J4="","",_auto_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="M7" s="26" t="str">
+      <c r="M7" s="20" t="str">
         <f>IF(_auto_day_shift!K4="","",_auto_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="N7" s="26" t="str">
+      <c r="N7" s="20" t="str">
         <f>IF(_auto_day_shift!L4="","",_auto_day_shift!L4)</f>
         <v/>
       </c>
-      <c r="O7" s="26" t="str">
+      <c r="O7" s="20" t="str">
         <f>IF(_auto_day_shift!M4="","",_auto_day_shift!M4)</f>
         <v/>
       </c>
-      <c r="P7" s="26" t="str">
+      <c r="P7" s="20" t="str">
         <f>IF(_auto_day_shift!N4="","",_auto_day_shift!N4)</f>
         <v/>
       </c>
-      <c r="Q7" s="26" t="str">
+      <c r="Q7" s="20" t="str">
         <f>IF(_auto_day_shift!O4="","",_auto_day_shift!O4)</f>
         <v/>
       </c>
-      <c r="R7" s="26" t="str">
+      <c r="R7" s="20" t="str">
         <f>IF(_auto_day_shift!P4="","",_auto_day_shift!P4)</f>
         <v/>
       </c>
-      <c r="S7" s="26" t="str">
+      <c r="S7" s="20" t="str">
         <f>IF(_auto_day_shift!Q4="","",_auto_day_shift!Q4)</f>
         <v/>
       </c>
-      <c r="T7" s="27" t="str">
+      <c r="T7" s="63" t="str">
         <f>IF(_auto_day_shift!R4="","",_auto_day_shift!R4)</f>
         <v/>
       </c>
     </row>
-    <row ht="15.75" r="8">
-      <c r="B8" s="23" t="s">
+    <row r="8" ht="15.75" spans="2:20">
+      <c r="B8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="28" t="str">
+      <c r="C8" s="21" t="str">
         <f>IF(_auto_day_shift!A6="","",_auto_day_shift!A6)</f>
         <v/>
       </c>
-      <c r="D8" s="28" t="str">
+      <c r="D8" s="21" t="str">
         <f>IF(_auto_day_shift!B6="","",_auto_day_shift!B6)</f>
         <v/>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_auto_day_shift!C6="","",_auto_day_shift!C6)</f>
         <v/>
       </c>
-      <c r="F8" s="28" t="str">
+      <c r="F8" s="21" t="str">
         <f>IF(_auto_day_shift!D6="","",_auto_day_shift!D6)</f>
         <v/>
       </c>
-      <c r="G8" s="28" t="str">
+      <c r="G8" s="21" t="str">
         <f>IF(_auto_day_shift!E6="","",_auto_day_shift!E6)</f>
         <v/>
       </c>
-      <c r="H8" s="28" t="str">
+      <c r="H8" s="21" t="str">
         <f>IF(_auto_day_shift!F6="","",_auto_day_shift!F6)</f>
         <v/>
       </c>
-      <c r="I8" s="28" t="str">
+      <c r="I8" s="21" t="str">
         <f>IF(_auto_day_shift!G6="","",_auto_day_shift!G6)</f>
         <v/>
       </c>
-      <c r="J8" s="28" t="str">
+      <c r="J8" s="21" t="str">
         <f>IF(_auto_day_shift!H6="","",_auto_day_shift!H6)</f>
         <v/>
       </c>
-      <c r="K8" s="28" t="str">
+      <c r="K8" s="21" t="str">
         <f>IF(_auto_day_shift!I6="","",_auto_day_shift!I6)</f>
         <v/>
       </c>
-      <c r="L8" s="28" t="str">
+      <c r="L8" s="21" t="str">
         <f>IF(_auto_day_shift!J6="","",_auto_day_shift!J6)</f>
         <v/>
       </c>
-      <c r="M8" s="28" t="str">
+      <c r="M8" s="21" t="str">
         <f>IF(_auto_day_shift!K6="","",_auto_day_shift!K6)</f>
         <v/>
       </c>
-      <c r="N8" s="28" t="str">
+      <c r="N8" s="21" t="str">
         <f>IF(_auto_day_shift!L6="","",_auto_day_shift!L6)</f>
         <v/>
       </c>
-      <c r="O8" s="28" t="str">
+      <c r="O8" s="21" t="str">
         <f>IF(_auto_day_shift!M6="","",_auto_day_shift!M6)</f>
         <v/>
       </c>
-      <c r="P8" s="28" t="str">
+      <c r="P8" s="21" t="str">
         <f>IF(_auto_day_shift!N6="","",_auto_day_shift!N6)</f>
         <v/>
       </c>
-      <c r="Q8" s="28" t="str">
+      <c r="Q8" s="21" t="str">
         <f>IF(_auto_day_shift!O6="","",_auto_day_shift!O6)</f>
         <v/>
       </c>
-      <c r="R8" s="28" t="str">
+      <c r="R8" s="21" t="str">
         <f>IF(_auto_day_shift!P6="","",_auto_day_shift!P6)</f>
         <v/>
       </c>
-      <c r="S8" s="28" t="str">
+      <c r="S8" s="21" t="str">
         <f>IF(_auto_day_shift!Q6="","",_auto_day_shift!Q6)</f>
         <v/>
       </c>
-      <c r="T8" s="29" t="str">
+      <c r="T8" s="64" t="str">
         <f>IF(_auto_day_shift!R6="","",_auto_day_shift!R6)</f>
         <v/>
       </c>
     </row>
-    <row ht="15.75" r="9">
-      <c r="B9" s="23" t="s">
+    <row r="9" ht="15.75" spans="2:20">
+      <c r="B9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="26" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_auto_day_shift!A8="","",_auto_day_shift!A8)</f>
         <v/>
       </c>
-      <c r="D9" s="26" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_auto_day_shift!B8="","",_auto_day_shift!B8)</f>
         <v/>
       </c>
-      <c r="E9" s="26" t="str">
+      <c r="E9" s="20" t="str">
         <f>IF(_auto_day_shift!C8="","",_auto_day_shift!C8)</f>
         <v/>
       </c>
-      <c r="F9" s="26" t="str">
+      <c r="F9" s="20" t="str">
         <f>IF(_auto_day_shift!D8="","",_auto_day_shift!D8)</f>
         <v/>
       </c>
-      <c r="G9" s="26" t="str">
+      <c r="G9" s="20" t="str">
         <f>IF(_auto_day_shift!E8="","",_auto_day_shift!E8)</f>
         <v/>
       </c>
-      <c r="H9" s="26" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_auto_day_shift!F8="","",_auto_day_shift!F8)</f>
         <v/>
       </c>
-      <c r="I9" s="26" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_auto_day_shift!G8="","",_auto_day_shift!G8)</f>
         <v/>
       </c>
-      <c r="J9" s="26" t="str">
+      <c r="J9" s="20" t="str">
         <f>IF(_auto_day_shift!H8="","",_auto_day_shift!H8)</f>
         <v/>
       </c>
-      <c r="K9" s="26" t="str">
+      <c r="K9" s="20" t="str">
         <f>IF(_auto_day_shift!I8="","",_auto_day_shift!I8)</f>
         <v/>
       </c>
-      <c r="L9" s="26" t="str">
+      <c r="L9" s="20" t="str">
         <f>IF(_auto_day_shift!J8="","",_auto_day_shift!J8)</f>
         <v/>
       </c>
-      <c r="M9" s="26" t="str">
+      <c r="M9" s="20" t="str">
         <f>IF(_auto_day_shift!K8="","",_auto_day_shift!K8)</f>
         <v/>
       </c>
-      <c r="N9" s="26" t="str">
+      <c r="N9" s="20" t="str">
         <f>IF(_auto_day_shift!L8="","",_auto_day_shift!L8)</f>
         <v/>
       </c>
-      <c r="O9" s="26" t="str">
+      <c r="O9" s="20" t="str">
         <f>IF(_auto_day_shift!M8="","",_auto_day_shift!M8)</f>
         <v/>
       </c>
-      <c r="P9" s="26" t="str">
+      <c r="P9" s="20" t="str">
         <f>IF(_auto_day_shift!N8="","",_auto_day_shift!N8)</f>
         <v/>
       </c>
-      <c r="Q9" s="26" t="str">
+      <c r="Q9" s="20" t="str">
         <f>IF(_auto_day_shift!O8="","",_auto_day_shift!O8)</f>
         <v/>
       </c>
-      <c r="R9" s="26" t="str">
+      <c r="R9" s="20" t="str">
         <f>IF(_auto_day_shift!P8="","",_auto_day_shift!P8)</f>
         <v/>
       </c>
-      <c r="S9" s="26" t="str">
+      <c r="S9" s="20" t="str">
         <f>IF(_auto_day_shift!Q8="","",_auto_day_shift!Q8)</f>
         <v/>
       </c>
-      <c r="T9" s="27" t="str">
+      <c r="T9" s="63" t="str">
         <f>IF(_auto_day_shift!R8="","",_auto_day_shift!R8)</f>
         <v/>
       </c>
     </row>
-    <row ht="18.75" customHeight="1" r="10">
-      <c r="B10" s="30" t="s">
+    <row r="10" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="23">
         <f>SUM(C9:H9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26">
         <f>SUM(I9:N9)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="34">
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="26">
         <f>SUM(O9:T9)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="37"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="65"/>
     </row>
-    <row ht="18.75" r="11">
+    <row r="11" ht="18.75" spans="2:20">
       <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
@@ -3230,440 +3135,440 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
-      <c r="T11" s="13"/>
+      <c r="T11" s="58"/>
     </row>
-    <row ht="18.75" r="12">
-      <c r="B12" s="14" t="s">
+    <row r="12" ht="18.75" spans="2:20">
+      <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="15" t="str">
+      <c r="C12" s="14" t="str">
         <f>IF(_name_day_shift!D2="","",_name_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18" t="str">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="50" t="str">
         <f>IF(_name_day_shift!E2="","",_name_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18" t="str">
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50" t="str">
         <f>IF(_name_day_shift!F2="","",_name_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="19"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="59"/>
     </row>
-    <row ht="18.75" r="13">
-      <c r="B13" s="14" t="s">
+    <row r="13" ht="18.75" spans="2:20">
+      <c r="B13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="P13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="20" t="s">
+      <c r="Q13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="20" t="s">
+      <c r="R13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="20" t="s">
+      <c r="S13" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="T13" s="21" t="s">
+      <c r="T13" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row ht="15" r="14">
-      <c r="B14" s="23" t="s">
+    <row r="14" ht="15" spans="2:20">
+      <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="24" t="str">
+      <c r="C14" s="19" t="str">
         <f>IF(_auto_day_shift!A10="","",_auto_day_shift!A10)</f>
         <v/>
       </c>
-      <c r="D14" s="24" t="str">
+      <c r="D14" s="19" t="str">
         <f>IF(_auto_day_shift!B10="","",_auto_day_shift!B10)</f>
         <v/>
       </c>
-      <c r="E14" s="24" t="str">
+      <c r="E14" s="19" t="str">
         <f>IF(_auto_day_shift!C10="","",_auto_day_shift!C10)</f>
         <v/>
       </c>
-      <c r="F14" s="24" t="str">
+      <c r="F14" s="19" t="str">
         <f>IF(_auto_day_shift!D10="","",_auto_day_shift!D10)</f>
         <v/>
       </c>
-      <c r="G14" s="24" t="str">
+      <c r="G14" s="19" t="str">
         <f>IF(_auto_day_shift!E10="","",_auto_day_shift!E10)</f>
         <v/>
       </c>
-      <c r="H14" s="24" t="str">
+      <c r="H14" s="19" t="str">
         <f>IF(_auto_day_shift!F10="","",_auto_day_shift!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="24" t="str">
+      <c r="I14" s="19" t="str">
         <f>IF(_auto_day_shift!G10="","",_auto_day_shift!G10)</f>
         <v/>
       </c>
-      <c r="J14" s="24" t="str">
+      <c r="J14" s="19" t="str">
         <f>IF(_auto_day_shift!H10="","",_auto_day_shift!H10)</f>
         <v/>
       </c>
-      <c r="K14" s="24" t="str">
+      <c r="K14" s="19" t="str">
         <f>IF(_auto_day_shift!I10="","",_auto_day_shift!I10)</f>
         <v/>
       </c>
-      <c r="L14" s="24" t="str">
+      <c r="L14" s="19" t="str">
         <f>IF(_auto_day_shift!J10="","",_auto_day_shift!J10)</f>
         <v/>
       </c>
-      <c r="M14" s="24" t="str">
+      <c r="M14" s="19" t="str">
         <f>IF(_auto_day_shift!K10="","",_auto_day_shift!K10)</f>
         <v/>
       </c>
-      <c r="N14" s="24" t="str">
+      <c r="N14" s="19" t="str">
         <f>IF(_auto_day_shift!L10="","",_auto_day_shift!L10)</f>
         <v/>
       </c>
-      <c r="O14" s="24" t="str">
+      <c r="O14" s="19" t="str">
         <f>IF(_auto_day_shift!M10="","",_auto_day_shift!M10)</f>
         <v/>
       </c>
-      <c r="P14" s="24" t="str">
+      <c r="P14" s="19" t="str">
         <f>IF(_auto_day_shift!N10="","",_auto_day_shift!N10)</f>
         <v/>
       </c>
-      <c r="Q14" s="24" t="str">
+      <c r="Q14" s="19" t="str">
         <f>IF(_auto_day_shift!O10="","",_auto_day_shift!O10)</f>
         <v/>
       </c>
-      <c r="R14" s="24" t="str">
+      <c r="R14" s="19" t="str">
         <f>IF(_auto_day_shift!P10="","",_auto_day_shift!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="24" t="str">
+      <c r="S14" s="19" t="str">
         <f>IF(_auto_day_shift!Q10="","",_auto_day_shift!Q10)</f>
         <v/>
       </c>
-      <c r="T14" s="25" t="str">
+      <c r="T14" s="62" t="str">
         <f>IF(_auto_day_shift!R10="","",_auto_day_shift!R10)</f>
         <v/>
       </c>
     </row>
-    <row ht="15.75" r="15">
-      <c r="B15" s="23" t="s">
+    <row r="15" ht="15.75" spans="2:20">
+      <c r="B15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="26" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_auto_day_shift!A12="","",_auto_day_shift!A12)</f>
         <v/>
       </c>
-      <c r="D15" s="26" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_auto_day_shift!B12="","",_auto_day_shift!B12)</f>
         <v/>
       </c>
-      <c r="E15" s="26" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_auto_day_shift!C12="","",_auto_day_shift!C12)</f>
         <v/>
       </c>
-      <c r="F15" s="26" t="str">
+      <c r="F15" s="20" t="str">
         <f>IF(_auto_day_shift!D12="","",_auto_day_shift!D12)</f>
         <v/>
       </c>
-      <c r="G15" s="26" t="str">
+      <c r="G15" s="20" t="str">
         <f>IF(_auto_day_shift!E12="","",_auto_day_shift!E12)</f>
         <v/>
       </c>
-      <c r="H15" s="26" t="str">
+      <c r="H15" s="20" t="str">
         <f>IF(_auto_day_shift!F12="","",_auto_day_shift!F12)</f>
         <v/>
       </c>
-      <c r="I15" s="26" t="str">
+      <c r="I15" s="20" t="str">
         <f>IF(_auto_day_shift!G12="","",_auto_day_shift!G12)</f>
         <v/>
       </c>
-      <c r="J15" s="26" t="str">
+      <c r="J15" s="20" t="str">
         <f>IF(_auto_day_shift!H12="","",_auto_day_shift!H12)</f>
         <v/>
       </c>
-      <c r="K15" s="26" t="str">
+      <c r="K15" s="20" t="str">
         <f>IF(_auto_day_shift!I12="","",_auto_day_shift!I12)</f>
         <v/>
       </c>
-      <c r="L15" s="26" t="str">
+      <c r="L15" s="20" t="str">
         <f>IF(_auto_day_shift!J12="","",_auto_day_shift!J12)</f>
         <v/>
       </c>
-      <c r="M15" s="26" t="str">
+      <c r="M15" s="20" t="str">
         <f>IF(_auto_day_shift!K12="","",_auto_day_shift!K12)</f>
         <v/>
       </c>
-      <c r="N15" s="26" t="str">
+      <c r="N15" s="20" t="str">
         <f>IF(_auto_day_shift!L12="","",_auto_day_shift!L12)</f>
         <v/>
       </c>
-      <c r="O15" s="26" t="str">
+      <c r="O15" s="20" t="str">
         <f>IF(_auto_day_shift!M12="","",_auto_day_shift!M12)</f>
         <v/>
       </c>
-      <c r="P15" s="26" t="str">
+      <c r="P15" s="20" t="str">
         <f>IF(_auto_day_shift!N12="","",_auto_day_shift!N12)</f>
         <v/>
       </c>
-      <c r="Q15" s="26" t="str">
+      <c r="Q15" s="20" t="str">
         <f>IF(_auto_day_shift!O12="","",_auto_day_shift!O12)</f>
         <v/>
       </c>
-      <c r="R15" s="26" t="str">
+      <c r="R15" s="20" t="str">
         <f>IF(_auto_day_shift!P12="","",_auto_day_shift!P12)</f>
         <v/>
       </c>
-      <c r="S15" s="26" t="str">
+      <c r="S15" s="20" t="str">
         <f>IF(_auto_day_shift!Q12="","",_auto_day_shift!Q12)</f>
         <v/>
       </c>
-      <c r="T15" s="27" t="str">
+      <c r="T15" s="63" t="str">
         <f>IF(_auto_day_shift!R12="","",_auto_day_shift!R12)</f>
         <v/>
       </c>
     </row>
-    <row ht="15.75" r="16">
-      <c r="B16" s="23" t="s">
+    <row r="16" ht="15.75" spans="2:20">
+      <c r="B16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="28" t="str">
+      <c r="C16" s="21" t="str">
         <f>IF(_auto_day_shift!A14="","",_auto_day_shift!A14)</f>
         <v/>
       </c>
-      <c r="D16" s="28" t="str">
+      <c r="D16" s="21" t="str">
         <f>IF(_auto_day_shift!B14="","",_auto_day_shift!B14)</f>
         <v/>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="21" t="str">
         <f>IF(_auto_day_shift!C14="","",_auto_day_shift!C14)</f>
         <v/>
       </c>
-      <c r="F16" s="28" t="str">
+      <c r="F16" s="21" t="str">
         <f>IF(_auto_day_shift!D14="","",_auto_day_shift!D14)</f>
         <v/>
       </c>
-      <c r="G16" s="28" t="str">
+      <c r="G16" s="21" t="str">
         <f>IF(_auto_day_shift!E14="","",_auto_day_shift!E14)</f>
         <v/>
       </c>
-      <c r="H16" s="28" t="str">
+      <c r="H16" s="21" t="str">
         <f>IF(_auto_day_shift!F14="","",_auto_day_shift!F14)</f>
         <v/>
       </c>
-      <c r="I16" s="28" t="str">
+      <c r="I16" s="21" t="str">
         <f>IF(_auto_day_shift!G14="","",_auto_day_shift!G14)</f>
         <v/>
       </c>
-      <c r="J16" s="28" t="str">
+      <c r="J16" s="21" t="str">
         <f>IF(_auto_day_shift!H14="","",_auto_day_shift!H14)</f>
         <v/>
       </c>
-      <c r="K16" s="28" t="str">
+      <c r="K16" s="21" t="str">
         <f>IF(_auto_day_shift!I14="","",_auto_day_shift!I14)</f>
         <v/>
       </c>
-      <c r="L16" s="28" t="str">
+      <c r="L16" s="21" t="str">
         <f>IF(_auto_day_shift!J14="","",_auto_day_shift!J14)</f>
         <v/>
       </c>
-      <c r="M16" s="28" t="str">
+      <c r="M16" s="21" t="str">
         <f>IF(_auto_day_shift!K14="","",_auto_day_shift!K14)</f>
         <v/>
       </c>
-      <c r="N16" s="28" t="str">
+      <c r="N16" s="21" t="str">
         <f>IF(_auto_day_shift!L14="","",_auto_day_shift!L14)</f>
         <v/>
       </c>
-      <c r="O16" s="28" t="str">
+      <c r="O16" s="21" t="str">
         <f>IF(_auto_day_shift!M14="","",_auto_day_shift!M14)</f>
         <v/>
       </c>
-      <c r="P16" s="28" t="str">
+      <c r="P16" s="21" t="str">
         <f>IF(_auto_day_shift!N14="","",_auto_day_shift!N14)</f>
         <v/>
       </c>
-      <c r="Q16" s="28" t="str">
+      <c r="Q16" s="21" t="str">
         <f>IF(_auto_day_shift!O14="","",_auto_day_shift!O14)</f>
         <v/>
       </c>
-      <c r="R16" s="28" t="str">
+      <c r="R16" s="21" t="str">
         <f>IF(_auto_day_shift!P14="","",_auto_day_shift!P14)</f>
         <v/>
       </c>
-      <c r="S16" s="28" t="str">
+      <c r="S16" s="21" t="str">
         <f>IF(_auto_day_shift!Q14="","",_auto_day_shift!Q14)</f>
         <v/>
       </c>
-      <c r="T16" s="29" t="str">
+      <c r="T16" s="64" t="str">
         <f>IF(_auto_day_shift!R14="","",_auto_day_shift!R14)</f>
         <v/>
       </c>
     </row>
-    <row ht="15.75" r="17">
-      <c r="B17" s="23" t="s">
+    <row r="17" ht="15.75" spans="2:20">
+      <c r="B17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="26" t="str">
+      <c r="C17" s="20" t="str">
         <f>IF(_auto_day_shift!A16="","",_auto_day_shift!A16)</f>
         <v/>
       </c>
-      <c r="D17" s="26" t="str">
+      <c r="D17" s="20" t="str">
         <f>IF(_auto_day_shift!B16="","",_auto_day_shift!B16)</f>
         <v/>
       </c>
-      <c r="E17" s="26" t="str">
+      <c r="E17" s="20" t="str">
         <f>IF(_auto_day_shift!C16="","",_auto_day_shift!C16)</f>
         <v/>
       </c>
-      <c r="F17" s="26" t="str">
+      <c r="F17" s="20" t="str">
         <f>IF(_auto_day_shift!D16="","",_auto_day_shift!D16)</f>
         <v/>
       </c>
-      <c r="G17" s="26" t="str">
+      <c r="G17" s="20" t="str">
         <f>IF(_auto_day_shift!E16="","",_auto_day_shift!E16)</f>
         <v/>
       </c>
-      <c r="H17" s="26" t="str">
+      <c r="H17" s="20" t="str">
         <f>IF(_auto_day_shift!F16="","",_auto_day_shift!F16)</f>
         <v/>
       </c>
-      <c r="I17" s="26" t="str">
+      <c r="I17" s="20" t="str">
         <f>IF(_auto_day_shift!G16="","",_auto_day_shift!G16)</f>
         <v/>
       </c>
-      <c r="J17" s="26" t="str">
+      <c r="J17" s="20" t="str">
         <f>IF(_auto_day_shift!H16="","",_auto_day_shift!H16)</f>
         <v/>
       </c>
-      <c r="K17" s="26" t="str">
+      <c r="K17" s="20" t="str">
         <f>IF(_auto_day_shift!I16="","",_auto_day_shift!I16)</f>
         <v/>
       </c>
-      <c r="L17" s="26" t="str">
+      <c r="L17" s="20" t="str">
         <f>IF(_auto_day_shift!J16="","",_auto_day_shift!J16)</f>
         <v/>
       </c>
-      <c r="M17" s="26" t="str">
+      <c r="M17" s="20" t="str">
         <f>IF(_auto_day_shift!K16="","",_auto_day_shift!K16)</f>
         <v/>
       </c>
-      <c r="N17" s="26" t="str">
+      <c r="N17" s="20" t="str">
         <f>IF(_auto_day_shift!L16="","",_auto_day_shift!L16)</f>
         <v/>
       </c>
-      <c r="O17" s="26" t="str">
+      <c r="O17" s="20" t="str">
         <f>IF(_auto_day_shift!M16="","",_auto_day_shift!M16)</f>
         <v/>
       </c>
-      <c r="P17" s="26" t="str">
+      <c r="P17" s="20" t="str">
         <f>IF(_auto_day_shift!N16="","",_auto_day_shift!N16)</f>
         <v/>
       </c>
-      <c r="Q17" s="26" t="str">
+      <c r="Q17" s="20" t="str">
         <f>IF(_auto_day_shift!O16="","",_auto_day_shift!O16)</f>
         <v/>
       </c>
-      <c r="R17" s="26" t="str">
+      <c r="R17" s="20" t="str">
         <f>IF(_auto_day_shift!P16="","",_auto_day_shift!P16)</f>
         <v/>
       </c>
-      <c r="S17" s="26" t="str">
+      <c r="S17" s="20" t="str">
         <f>IF(_auto_day_shift!Q16="","",_auto_day_shift!Q16)</f>
         <v/>
       </c>
-      <c r="T17" s="27" t="str">
+      <c r="T17" s="63" t="str">
         <f>IF(_auto_day_shift!R16="","",_auto_day_shift!R16)</f>
         <v/>
       </c>
     </row>
-    <row ht="18.75" customHeight="1" r="18">
-      <c r="B18" s="30" t="s">
+    <row r="18" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B18" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="26">
         <f>SUM(C17:H17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="34">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="26">
         <f>SUM(I17:N17)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="34">
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="26">
         <f>SUM(O17:T17)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="37"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="65"/>
     </row>
-    <row ht="18.75" customHeight="1" r="19">
+    <row r="19" ht="18.75" customHeight="1" spans="2:20">
       <c r="B19" s="9" t="s">
         <v>52</v>
       </c>
@@ -3690,563 +3595,600 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
-      <c r="T19" s="13"/>
+      <c r="T19" s="58"/>
     </row>
-    <row ht="18.75" customHeight="1" r="20">
-      <c r="B20" s="14" t="s">
+    <row r="20" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C20" s="14" t="str">
         <f>IF(_name_day_shift!G2="","",_name_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="15" t="str">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="14" t="str">
         <f>IF(_name_day_shift!H2="","",_name_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="15" t="str">
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="14" t="str">
         <f>IF(_name_day_shift!I2="","",_name_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="38"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="66"/>
     </row>
-    <row ht="18.75" r="21">
-      <c r="B21" s="14" t="s">
+    <row r="21" ht="18.75" spans="2:20">
+      <c r="B21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J21" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="39" t="s">
+      <c r="M21" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="N21" s="39" t="s">
+      <c r="N21" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O21" s="39" t="s">
+      <c r="O21" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="P21" s="39" t="s">
+      <c r="P21" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="Q21" s="39" t="s">
+      <c r="Q21" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="R21" s="39" t="s">
+      <c r="R21" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="S21" s="39" t="s">
+      <c r="S21" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="T21" s="40" t="s">
+      <c r="T21" s="67" t="s">
         <v>73</v>
       </c>
     </row>
-    <row ht="15" r="22">
-      <c r="B22" s="23" t="s">
+    <row r="22" ht="15" spans="2:20">
+      <c r="B22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="24" t="str">
+      <c r="C22" s="19" t="str">
         <f>IF(_auto_day_shift!A18="","",_auto_day_shift!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="24" t="str">
+      <c r="D22" s="19" t="str">
         <f>IF(_auto_day_shift!B18="","",_auto_day_shift!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="24" t="str">
+      <c r="E22" s="19" t="str">
         <f>IF(_auto_day_shift!C18="","",_auto_day_shift!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="24" t="str">
+      <c r="F22" s="19" t="str">
         <f>IF(_auto_day_shift!D18="","",_auto_day_shift!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="24" t="str">
+      <c r="G22" s="19" t="str">
         <f>IF(_auto_day_shift!E18="","",_auto_day_shift!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="24" t="str">
+      <c r="H22" s="19" t="str">
         <f>IF(_auto_day_shift!F18="","",_auto_day_shift!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="24" t="str">
+      <c r="I22" s="19" t="str">
         <f>IF(_auto_day_shift!G18="","",_auto_day_shift!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="24" t="str">
+      <c r="J22" s="19" t="str">
         <f>IF(_auto_day_shift!H18="","",_auto_day_shift!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="24" t="str">
+      <c r="K22" s="19" t="str">
         <f>IF(_auto_day_shift!I18="","",_auto_day_shift!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="24" t="str">
+      <c r="L22" s="19" t="str">
         <f>IF(_auto_day_shift!J18="","",_auto_day_shift!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="24" t="str">
+      <c r="M22" s="19" t="str">
         <f>IF(_auto_day_shift!K18="","",_auto_day_shift!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="24" t="str">
+      <c r="N22" s="19" t="str">
         <f>IF(_auto_day_shift!L18="","",_auto_day_shift!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="24" t="str">
+      <c r="O22" s="19" t="str">
         <f>IF(_auto_day_shift!M18="","",_auto_day_shift!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="24" t="str">
+      <c r="P22" s="19" t="str">
         <f>IF(_auto_day_shift!N18="","",_auto_day_shift!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="24" t="str">
+      <c r="Q22" s="19" t="str">
         <f>IF(_auto_day_shift!O18="","",_auto_day_shift!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="24" t="str">
+      <c r="R22" s="19" t="str">
         <f>IF(_auto_day_shift!P18="","",_auto_day_shift!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="24" t="str">
+      <c r="S22" s="19" t="str">
         <f>IF(_auto_day_shift!Q18="","",_auto_day_shift!Q18)</f>
         <v/>
       </c>
-      <c r="T22" s="25" t="str">
+      <c r="T22" s="62" t="str">
         <f>IF(_auto_day_shift!R18="","",_auto_day_shift!R18)</f>
         <v/>
       </c>
     </row>
-    <row ht="15.75" r="23">
-      <c r="B23" s="23" t="s">
+    <row r="23" ht="15.75" spans="2:20">
+      <c r="B23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="26" t="str">
+      <c r="C23" s="20" t="str">
         <f>IF(_auto_day_shift!A20="","",_auto_day_shift!A20)</f>
         <v/>
       </c>
-      <c r="D23" s="26" t="str">
+      <c r="D23" s="20" t="str">
         <f>IF(_auto_day_shift!B20="","",_auto_day_shift!B20)</f>
         <v/>
       </c>
-      <c r="E23" s="26" t="str">
+      <c r="E23" s="20" t="str">
         <f>IF(_auto_day_shift!C20="","",_auto_day_shift!C20)</f>
         <v/>
       </c>
-      <c r="F23" s="26" t="str">
+      <c r="F23" s="20" t="str">
         <f>IF(_auto_day_shift!D20="","",_auto_day_shift!D20)</f>
         <v/>
       </c>
-      <c r="G23" s="26" t="str">
+      <c r="G23" s="20" t="str">
         <f>IF(_auto_day_shift!E20="","",_auto_day_shift!E20)</f>
         <v/>
       </c>
-      <c r="H23" s="26" t="str">
+      <c r="H23" s="20" t="str">
         <f>IF(_auto_day_shift!F20="","",_auto_day_shift!F20)</f>
         <v/>
       </c>
-      <c r="I23" s="26" t="str">
+      <c r="I23" s="20" t="str">
         <f>IF(_auto_day_shift!G20="","",_auto_day_shift!G20)</f>
         <v/>
       </c>
-      <c r="J23" s="26" t="str">
+      <c r="J23" s="20" t="str">
         <f>IF(_auto_day_shift!H20="","",_auto_day_shift!H20)</f>
         <v/>
       </c>
-      <c r="K23" s="26" t="str">
+      <c r="K23" s="20" t="str">
         <f>IF(_auto_day_shift!I20="","",_auto_day_shift!I20)</f>
         <v/>
       </c>
-      <c r="L23" s="26" t="str">
+      <c r="L23" s="20" t="str">
         <f>IF(_auto_day_shift!J20="","",_auto_day_shift!J20)</f>
         <v/>
       </c>
-      <c r="M23" s="26" t="str">
+      <c r="M23" s="20" t="str">
         <f>IF(_auto_day_shift!K20="","",_auto_day_shift!K20)</f>
         <v/>
       </c>
-      <c r="N23" s="26" t="str">
+      <c r="N23" s="20" t="str">
         <f>IF(_auto_day_shift!L20="","",_auto_day_shift!L20)</f>
         <v/>
       </c>
-      <c r="O23" s="26" t="str">
+      <c r="O23" s="20" t="str">
         <f>IF(_auto_day_shift!M20="","",_auto_day_shift!M20)</f>
         <v/>
       </c>
-      <c r="P23" s="26" t="str">
+      <c r="P23" s="20" t="str">
         <f>IF(_auto_day_shift!N20="","",_auto_day_shift!N20)</f>
         <v/>
       </c>
-      <c r="Q23" s="26" t="str">
+      <c r="Q23" s="20" t="str">
         <f>IF(_auto_day_shift!O20="","",_auto_day_shift!O20)</f>
         <v/>
       </c>
-      <c r="R23" s="26" t="str">
+      <c r="R23" s="20" t="str">
         <f>IF(_auto_day_shift!P20="","",_auto_day_shift!P20)</f>
         <v/>
       </c>
-      <c r="S23" s="26" t="str">
+      <c r="S23" s="20" t="str">
         <f>IF(_auto_day_shift!Q20="","",_auto_day_shift!Q20)</f>
         <v/>
       </c>
-      <c r="T23" s="27" t="str">
+      <c r="T23" s="63" t="str">
         <f>IF(_auto_day_shift!R20="","",_auto_day_shift!R20)</f>
         <v/>
       </c>
     </row>
-    <row ht="14.25" r="24">
-      <c r="B24" s="23" t="s">
+    <row r="24" ht="15.75" spans="2:20">
+      <c r="B24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="28" t="str">
+      <c r="C24" s="21" t="str">
         <f>IF(_auto_day_shift!A22="","",_auto_day_shift!A22)</f>
         <v/>
       </c>
-      <c r="D24" s="28" t="str">
+      <c r="D24" s="21" t="str">
         <f>IF(_auto_day_shift!B22="","",_auto_day_shift!B22)</f>
         <v/>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="21" t="str">
         <f>IF(_auto_day_shift!C22="","",_auto_day_shift!C22)</f>
         <v/>
       </c>
-      <c r="F24" s="28" t="str">
+      <c r="F24" s="21" t="str">
         <f>IF(_auto_day_shift!D22="","",_auto_day_shift!D22)</f>
         <v/>
       </c>
-      <c r="G24" s="28" t="str">
+      <c r="G24" s="21" t="str">
         <f>IF(_auto_day_shift!E22="","",_auto_day_shift!E22)</f>
         <v/>
       </c>
-      <c r="H24" s="28" t="str">
+      <c r="H24" s="21" t="str">
         <f>IF(_auto_day_shift!F22="","",_auto_day_shift!F22)</f>
         <v/>
       </c>
-      <c r="I24" s="28" t="str">
+      <c r="I24" s="21" t="str">
         <f>IF(_auto_day_shift!G22="","",_auto_day_shift!G22)</f>
         <v/>
       </c>
-      <c r="J24" s="28" t="str">
+      <c r="J24" s="21" t="str">
         <f>IF(_auto_day_shift!H22="","",_auto_day_shift!H22)</f>
         <v/>
       </c>
-      <c r="K24" s="28" t="str">
+      <c r="K24" s="21" t="str">
         <f>IF(_auto_day_shift!I22="","",_auto_day_shift!I22)</f>
         <v/>
       </c>
-      <c r="L24" s="28" t="str">
+      <c r="L24" s="21" t="str">
         <f>IF(_auto_day_shift!J22="","",_auto_day_shift!J22)</f>
         <v/>
       </c>
-      <c r="M24" s="28" t="str">
+      <c r="M24" s="21" t="str">
         <f>IF(_auto_day_shift!K22="","",_auto_day_shift!K22)</f>
         <v/>
       </c>
-      <c r="N24" s="28" t="str">
+      <c r="N24" s="21" t="str">
         <f>IF(_auto_day_shift!L22="","",_auto_day_shift!L22)</f>
         <v/>
       </c>
-      <c r="O24" s="28" t="str">
+      <c r="O24" s="21" t="str">
         <f>IF(_auto_day_shift!M22="","",_auto_day_shift!M22)</f>
         <v/>
       </c>
-      <c r="P24" s="28" t="str">
+      <c r="P24" s="21" t="str">
         <f>IF(_auto_day_shift!N22="","",_auto_day_shift!N22)</f>
         <v/>
       </c>
-      <c r="Q24" s="28" t="str">
+      <c r="Q24" s="21" t="str">
         <f>IF(_auto_day_shift!O22="","",_auto_day_shift!O22)</f>
         <v/>
       </c>
-      <c r="R24" s="28" t="str">
+      <c r="R24" s="21" t="str">
         <f>IF(_auto_day_shift!P22="","",_auto_day_shift!P22)</f>
         <v/>
       </c>
-      <c r="S24" s="28" t="str">
+      <c r="S24" s="21" t="str">
         <f>IF(_auto_day_shift!Q22="","",_auto_day_shift!Q22)</f>
         <v/>
       </c>
-      <c r="T24" s="29" t="str">
+      <c r="T24" s="64" t="str">
         <f>IF(_auto_day_shift!R22="","",_auto_day_shift!R22)</f>
         <v/>
       </c>
     </row>
-    <row ht="14.25" r="25">
-      <c r="B25" s="23" t="s">
+    <row r="25" ht="15.75" spans="2:20">
+      <c r="B25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="26" t="str">
+      <c r="C25" s="20" t="str">
         <f>IF(_auto_day_shift!A24="","",_auto_day_shift!A24)</f>
         <v/>
       </c>
-      <c r="D25" s="26" t="str">
+      <c r="D25" s="20" t="str">
         <f>IF(_auto_day_shift!B24="","",_auto_day_shift!B24)</f>
         <v/>
       </c>
-      <c r="E25" s="26" t="str">
+      <c r="E25" s="20" t="str">
         <f>IF(_auto_day_shift!C24="","",_auto_day_shift!C24)</f>
         <v/>
       </c>
-      <c r="F25" s="26" t="str">
+      <c r="F25" s="20" t="str">
         <f>IF(_auto_day_shift!D24="","",_auto_day_shift!D24)</f>
         <v/>
       </c>
-      <c r="G25" s="26" t="str">
+      <c r="G25" s="20" t="str">
         <f>IF(_auto_day_shift!E24="","",_auto_day_shift!E24)</f>
         <v/>
       </c>
-      <c r="H25" s="26" t="str">
+      <c r="H25" s="20" t="str">
         <f>IF(_auto_day_shift!F24="","",_auto_day_shift!F24)</f>
         <v/>
       </c>
-      <c r="I25" s="26" t="str">
+      <c r="I25" s="20" t="str">
         <f>IF(_auto_day_shift!G24="","",_auto_day_shift!G24)</f>
         <v/>
       </c>
-      <c r="J25" s="26" t="str">
+      <c r="J25" s="20" t="str">
         <f>IF(_auto_day_shift!H24="","",_auto_day_shift!H24)</f>
         <v/>
       </c>
-      <c r="K25" s="26" t="str">
+      <c r="K25" s="20" t="str">
         <f>IF(_auto_day_shift!I24="","",_auto_day_shift!I24)</f>
         <v/>
       </c>
-      <c r="L25" s="26" t="str">
+      <c r="L25" s="20" t="str">
         <f>IF(_auto_day_shift!J24="","",_auto_day_shift!J24)</f>
         <v/>
       </c>
-      <c r="M25" s="26" t="str">
+      <c r="M25" s="20" t="str">
         <f>IF(_auto_day_shift!K24="","",_auto_day_shift!K24)</f>
         <v/>
       </c>
-      <c r="N25" s="26" t="str">
+      <c r="N25" s="20" t="str">
         <f>IF(_auto_day_shift!L24="","",_auto_day_shift!L24)</f>
         <v/>
       </c>
-      <c r="O25" s="26" t="str">
+      <c r="O25" s="20" t="str">
         <f>IF(_auto_day_shift!M24="","",_auto_day_shift!M24)</f>
         <v/>
       </c>
-      <c r="P25" s="26" t="str">
+      <c r="P25" s="20" t="str">
         <f>IF(_auto_day_shift!N24="","",_auto_day_shift!N24)</f>
         <v/>
       </c>
-      <c r="Q25" s="26" t="str">
+      <c r="Q25" s="20" t="str">
         <f>IF(_auto_day_shift!O24="","",_auto_day_shift!O24)</f>
         <v/>
       </c>
-      <c r="R25" s="26" t="str">
+      <c r="R25" s="20" t="str">
         <f>IF(_auto_day_shift!P24="","",_auto_day_shift!P24)</f>
         <v/>
       </c>
-      <c r="S25" s="26" t="str">
+      <c r="S25" s="20" t="str">
         <f>IF(_auto_day_shift!Q24="","",_auto_day_shift!Q24)</f>
         <v/>
       </c>
-      <c r="T25" s="27" t="str">
+      <c r="T25" s="63" t="str">
         <f>IF(_auto_day_shift!R24="","",_auto_day_shift!R24)</f>
         <v/>
       </c>
     </row>
-    <row ht="18.75" customHeight="1" r="26">
-      <c r="B26" s="30" t="s">
+    <row r="26" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B26" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="26">
         <f>SUM(C25:H25)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="34">
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="26">
         <f>SUM(I25:N25)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="34">
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="26">
         <f>SUM(O25:T25)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="37"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="65"/>
     </row>
-    <row ht="18.75" customHeight="1" r="27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="41" t="s">
+    <row r="27" ht="19.75" customHeight="1" spans="2:20">
+      <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="42" t="str">
+      <c r="C27" s="31" t="str">
         <f>IF(_evt_day_shift!A2="","",_evt_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="45" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="42" t="str">
+      <c r="J27" s="52"/>
+      <c r="K27" s="31" t="str">
         <f>IF(_evt_day_shift!B2="","",_evt_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="45" t="s">
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="42" t="str">
+      <c r="P27" s="52"/>
+      <c r="Q27" s="31" t="str">
         <f>IF(_auto_day_shift!A34="","",_auto_day_shift!A34)</f>
         <v/>
       </c>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="44"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="33"/>
     </row>
-    <row ht="18.75" customHeight="1" r="28">
-      <c r="A28" s="1"/>
-      <c r="B28" s="47" t="s">
+    <row r="28" ht="19.75" customHeight="1" spans="2:20">
+      <c r="B28" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="48" t="str">
+      <c r="C28" s="35" t="str">
         <f>IF(_auto_day_shift!A31="","",_auto_day_shift!A31)</f>
         <v/>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="51" t="s">
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="48" t="str">
+      <c r="P28" s="55"/>
+      <c r="Q28" s="35" t="str">
         <f>IF(_auto_day_shift!A32="","",_auto_day_shift!A32)</f>
         <v/>
       </c>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="50"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="37"/>
     </row>
-    <row ht="147" customHeight="1" r="29">
-      <c r="B29" s="54" t="s">
+    <row r="29" s="4" customFormat="1" ht="19.75" customHeight="1" spans="2:20">
+      <c r="B29" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="56"/>
+      <c r="C29" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="40" t="str">
+        <f>IF(_evt_day_shift!E15="","",_evt_day_shift!E15)</f>
+        <v/>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="40" t="str">
+        <f>IF(_evt_day_shift!F15="","",_evt_day_shift!F15)</f>
+        <v/>
+      </c>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="L29" s="40" t="str">
+        <f>IF(_evt_day_shift!G15="","",_evt_day_shift!G15)</f>
+        <v/>
+      </c>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="68"/>
+      <c r="T29" s="69"/>
     </row>
-    <row ht="18.75" customHeight="1" r="30">
-      <c r="B30" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="59"/>
+    <row r="30" ht="147" customHeight="1" spans="2:20">
+      <c r="B30" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="70"/>
     </row>
-    <row ht="18.75" customHeight="1" r="38"/>
-    <row ht="117" customHeight="1" r="47"/>
-    <row ht="18.75" customHeight="1" r="49"/>
-    <row ht="18.75" customHeight="1" r="58"/>
-    <row ht="135.75" customHeight="1" r="67"/>
+    <row r="31" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B31" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="48"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1"/>
+    <row r="48" ht="117" customHeight="1"/>
+    <row r="50" ht="18.75" customHeight="1"/>
+    <row r="59" ht="18.75" customHeight="1"/>
+    <row r="68" ht="135.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="46">
     <mergeCell ref="B1:T1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="J2:O2"/>
@@ -4286,798 +4228,809 @@
     <mergeCell ref="I28:N28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="B29:T29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="I30:T30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="B30:T30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="I31:T31"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="45.450000000000003"/>
-    <col customWidth="1" min="2" max="2" style="1" width="43.450000000000003"/>
-    <col customWidth="1" min="3" max="3" style="1" width="46.908333333333303"/>
-    <col customWidth="1" min="4" max="4" style="1" width="36.908333333333303"/>
-    <col customWidth="1" min="5" max="5" style="1" width="36.450000000000003"/>
-    <col customWidth="1" min="6" max="6" style="1" width="30.091666666666701"/>
-    <col min="7" max="16384" style="1" width="9"/>
+    <col min="1" max="1" width="45.45" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.45" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.9083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.9083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.45" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.0916666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="25"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="60" t="s">
-        <v>297</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>301</v>
-      </c>
-      <c r="F1" s="60" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="D1" t="s">
         <v>305</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.875"/>
-    <col customWidth="1" min="2" max="2" width="19"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-配煤-自动配煤报表（班）.xlsx
+++ b/excel/finished/焦化/CK67-配煤-自动配煤报表（班）.xlsx
@@ -1,32 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1、自动配煤（班）" sheetId="1" r:id="rId1"/>
-    <sheet name="_auto_day_shift" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
-    <sheet name="_name_day_shift" sheetId="4" r:id="rId4"/>
-    <sheet name="_evt_day_shift" sheetId="5" r:id="rId5"/>
+    <sheet name="1、自动配煤（班）" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="_auto_day_shift" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="_name_day_shift" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="_evt_day_shift" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="313">
-  <si>
-    <t xml:space="preserve">焦化分厂焦炉配煤自动配煤操作记录       </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+  <si>
+    <t xml:space="preserve">备煤作业区6#-7#焦炉配煤自动配煤操作记录       </t>
   </si>
   <si>
     <t>编号：SGSSG-BSMCSA35-G001-02A</t>
   </si>
   <si>
-    <t>筒    仓</t>
+    <t xml:space="preserve">筒    仓</t>
   </si>
   <si>
     <t xml:space="preserve">             1＃仓</t>
@@ -41,7 +40,7 @@
     <t>煤种名称</t>
   </si>
   <si>
-    <t>料    嘴</t>
+    <t xml:space="preserve">料    嘴</t>
   </si>
   <si>
     <t>1－1</t>
@@ -278,58 +277,58 @@
     <t>接班：</t>
   </si>
   <si>
-    <t>CK67_L1R_CB_11CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_12CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_13CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_14CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_15CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_16CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_21CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_22CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_23CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_24CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_25CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_26CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_31CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_32CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_33CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_34CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_35CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_36CBRatio_1m_avg</t>
+    <t>CK67_L1R_CB_11CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_12CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_13CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_14CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_15CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_16CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_21CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_22CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_23CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_24CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_25CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_26CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_31CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_32CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_33CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_34CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_35CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_36CBSetRatio_1m_avg</t>
   </si>
   <si>
     <t>CK67_L1R_CB_11CBAc_1m_avg</t>
@@ -494,58 +493,58 @@
     <t>CK67_L1R_CB_36CBShiftAmt_1m_avg</t>
   </si>
   <si>
-    <t>CK67_L1R_CB_41CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_42CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_43CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_44CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_45CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_46CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_51CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_52CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_53CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_54CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_55CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_56CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_61CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_62CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_63CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_64CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_65CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_66CBRatio_1m_avg</t>
+    <t>CK67_L1R_CB_41CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_42CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_43CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_44CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_45CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_46CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_51CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_52CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_53CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_54CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_55CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_56CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_61CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_62CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_63CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_64CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_65CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_66CBSetRatio_1m_avg</t>
   </si>
   <si>
     <t>CK67_L1R_CB_41CBAc_1m_avg</t>
@@ -710,58 +709,58 @@
     <t>CK67_L1R_CB_66CBShiftAmt_1m_avg</t>
   </si>
   <si>
-    <t>CK67_L1R_CB_71CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_72CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_73CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_74CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_75CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_76CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_81CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_82CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_83CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_84CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_85CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_86CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_91CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_92CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_93CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_94CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_95CBRatio_1m_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_96CBRatio_1m_avg</t>
+    <t>CK67_L1R_CB_71CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_72CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_73CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_74CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_75CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_76CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_81CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_82CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_83CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_84CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_85CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_86CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_91CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_92CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_93CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_94CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_95CBSetRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_96CBSetRatio_1m_avg</t>
   </si>
   <si>
     <t>CK67_L1R_CB_71CBAc_1m_avg</t>
@@ -962,255 +961,98 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="160" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="16">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="9.7"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <b/>
+      <sz val="18"/>
     </font>
     <font>
+      <name val="宋体"/>
       <b/>
-      <sz val="18"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="14"/>
     </font>
     <font>
+      <name val="宋体"/>
       <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="12"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="14"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
       <b/>
+      <color theme="1"/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <color theme="1"/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
       <b/>
+      <color indexed="2"/>
       <sz val="12"/>
-      <color indexed="2"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <color indexed="64"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b/>
       <sz val="14"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="Arial"/>
       <sz val="14"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="4"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="65"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Consolas"/>
+      <sz val="9.6999999999999993"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1224,200 +1066,8 @@
         <bgColor indexed="5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor theme="9" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor theme="6" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor theme="8" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor theme="4" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor theme="9" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor theme="7" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="48">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1478,6 +1128,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -1534,6 +1197,21 @@
         <color theme="1"/>
       </left>
       <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
         <color theme="1"/>
       </right>
       <top style="thin">
@@ -1591,6 +1269,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -1632,6 +1334,32 @@
     <border>
       <left/>
       <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color theme="1"/>
       </right>
       <top style="medium">
@@ -1685,45 +1413,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1731,37 +1440,33 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1795,580 +1500,468 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="40">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+  <cellStyleXfs count="2">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="6" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="7" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="7" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="7" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="7" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="6" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="8" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="8" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="8" fillId="2" borderId="10" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="8" fillId="2" borderId="11" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="9" fillId="0" borderId="10" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="9" fillId="0" borderId="11" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="11" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="10" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="11" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="13" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="14" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="13" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="14" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="16" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="2" borderId="10" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="8" fillId="2" borderId="11" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="6" fillId="3" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="11" fillId="3" borderId="19" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="3" borderId="20" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="3" borderId="21" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="3" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="3" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="3" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="11" fillId="3" borderId="25" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="3" borderId="26" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="3" borderId="27" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="3" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="3" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="3" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="12" fillId="3" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="3" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="13" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="0" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="35" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="15" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2575,79 +2168,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:W68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0" zoomScale="85">
+      <selection activeCell="C10" activeCellId="0" sqref="C10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.0916666666667" style="1" customWidth="1"/>
-    <col min="3" max="20" width="7.70833333333333" style="1" customWidth="1"/>
-    <col min="21" max="32" width="6.725" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="1"/>
+    <col min="1" max="1" style="1" width="9"/>
+    <col customWidth="1" min="2" max="2" style="1" width="19.08203125"/>
+    <col customWidth="1" min="3" max="20" style="1" width="7.6640625"/>
+    <col customWidth="1" min="21" max="32" style="1" width="6.75"/>
+    <col min="33" max="16384" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="39.75" customHeight="1" spans="2:20">
-      <c r="B1" s="5" t="s">
+    <row customFormat="1" ht="39.75" customHeight="1" r="1" s="2">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="2:23">
-      <c r="B2" s="6" t="str">
+    <row ht="21" customHeight="1" r="2">
+      <c r="B2" s="4" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="C2" s="7" t="str">
+      <c r="C2" s="5" t="str">
         <f>IF(_auto_day_shift!A30="","",_auto_day_shift!A30)</f>
         <v/>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="49" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="2:20">
+    <row ht="18.75" customHeight="1" r="3">
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
@@ -2674,441 +2265,441 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
-      <c r="T3" s="58"/>
+      <c r="T3" s="13"/>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B4" s="13" t="s">
+    <row ht="18.75" customHeight="1" r="4">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14" t="str">
+      <c r="C4" s="15" t="str">
         <f>IF(_name_day_shift!A2="","",_name_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="50" t="str">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18" t="str">
         <f>IF(_name_day_shift!B2="","",_name_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50" t="str">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18" t="str">
         <f>IF(_name_day_shift!C2="","",_name_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="59"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
     </row>
-    <row r="5" ht="18.75" spans="2:22">
-      <c r="B5" s="13" t="s">
+    <row ht="17.5" r="5">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="S5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="60" t="s">
+      <c r="T5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="61"/>
+      <c r="V5" s="22"/>
     </row>
-    <row r="6" ht="15" spans="2:20">
-      <c r="B6" s="18" t="s">
+    <row ht="16" r="6">
+      <c r="B6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="19" t="str">
+      <c r="C6" s="24" t="str">
         <f>IF(_auto_day_shift!A2="","",_auto_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D6" s="19" t="str">
+      <c r="D6" s="24" t="str">
         <f>IF(_auto_day_shift!B2="","",_auto_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="E6" s="19" t="str">
+      <c r="E6" s="24" t="str">
         <f>IF(_auto_day_shift!C2="","",_auto_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="F6" s="19" t="str">
+      <c r="F6" s="24" t="str">
         <f>IF(_auto_day_shift!D2="","",_auto_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="G6" s="19" t="str">
+      <c r="G6" s="24" t="str">
         <f>IF(_auto_day_shift!E2="","",_auto_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="H6" s="19" t="str">
+      <c r="H6" s="24" t="str">
         <f>IF(_auto_day_shift!F2="","",_auto_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="19" t="str">
+      <c r="I6" s="24" t="str">
         <f>IF(_auto_day_shift!G2="","",_auto_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="19" t="str">
+      <c r="J6" s="24" t="str">
         <f>IF(_auto_day_shift!H2="","",_auto_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="K6" s="19" t="str">
+      <c r="K6" s="24" t="str">
         <f>IF(_auto_day_shift!I2="","",_auto_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="L6" s="19" t="str">
+      <c r="L6" s="24" t="str">
         <f>IF(_auto_day_shift!J2="","",_auto_day_shift!J2)</f>
         <v/>
       </c>
-      <c r="M6" s="19" t="str">
+      <c r="M6" s="24" t="str">
         <f>IF(_auto_day_shift!K2="","",_auto_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="N6" s="19" t="str">
+      <c r="N6" s="24" t="str">
         <f>IF(_auto_day_shift!L2="","",_auto_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="O6" s="19" t="str">
+      <c r="O6" s="24" t="str">
         <f>IF(_auto_day_shift!M2="","",_auto_day_shift!M2)</f>
         <v/>
       </c>
-      <c r="P6" s="19" t="str">
+      <c r="P6" s="24" t="str">
         <f>IF(_auto_day_shift!N2="","",_auto_day_shift!N2)</f>
         <v/>
       </c>
-      <c r="Q6" s="19" t="str">
+      <c r="Q6" s="24" t="str">
         <f>IF(_auto_day_shift!O2="","",_auto_day_shift!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="19" t="str">
+      <c r="R6" s="24" t="str">
         <f>IF(_auto_day_shift!P2="","",_auto_day_shift!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="19" t="str">
+      <c r="S6" s="24" t="str">
         <f>IF(_auto_day_shift!Q2="","",_auto_day_shift!Q2)</f>
         <v/>
       </c>
-      <c r="T6" s="62" t="str">
+      <c r="T6" s="25" t="str">
         <f>IF(_auto_day_shift!R2="","",_auto_day_shift!R2)</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="2:20">
-      <c r="B7" s="18" t="s">
+    <row ht="16" r="7">
+      <c r="B7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="20" t="str">
+      <c r="C7" s="26" t="str">
         <f>IF(_auto_day_shift!A4="","",_auto_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="D7" s="20" t="str">
+      <c r="D7" s="26" t="str">
         <f>IF(_auto_day_shift!B4="","",_auto_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="E7" s="20" t="str">
+      <c r="E7" s="26" t="str">
         <f>IF(_auto_day_shift!C4="","",_auto_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="F7" s="20" t="str">
+      <c r="F7" s="26" t="str">
         <f>IF(_auto_day_shift!D4="","",_auto_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="G7" s="20" t="str">
+      <c r="G7" s="26" t="str">
         <f>IF(_auto_day_shift!E4="","",_auto_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="H7" s="20" t="str">
+      <c r="H7" s="26" t="str">
         <f>IF(_auto_day_shift!F4="","",_auto_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="I7" s="20" t="str">
+      <c r="I7" s="26" t="str">
         <f>IF(_auto_day_shift!G4="","",_auto_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="J7" s="20" t="str">
+      <c r="J7" s="26" t="str">
         <f>IF(_auto_day_shift!H4="","",_auto_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="K7" s="20" t="str">
+      <c r="K7" s="26" t="str">
         <f>IF(_auto_day_shift!I4="","",_auto_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="L7" s="20" t="str">
+      <c r="L7" s="26" t="str">
         <f>IF(_auto_day_shift!J4="","",_auto_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="M7" s="20" t="str">
+      <c r="M7" s="26" t="str">
         <f>IF(_auto_day_shift!K4="","",_auto_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="N7" s="20" t="str">
+      <c r="N7" s="26" t="str">
         <f>IF(_auto_day_shift!L4="","",_auto_day_shift!L4)</f>
         <v/>
       </c>
-      <c r="O7" s="20" t="str">
+      <c r="O7" s="26" t="str">
         <f>IF(_auto_day_shift!M4="","",_auto_day_shift!M4)</f>
         <v/>
       </c>
-      <c r="P7" s="20" t="str">
+      <c r="P7" s="26" t="str">
         <f>IF(_auto_day_shift!N4="","",_auto_day_shift!N4)</f>
         <v/>
       </c>
-      <c r="Q7" s="20" t="str">
+      <c r="Q7" s="26" t="str">
         <f>IF(_auto_day_shift!O4="","",_auto_day_shift!O4)</f>
         <v/>
       </c>
-      <c r="R7" s="20" t="str">
+      <c r="R7" s="26" t="str">
         <f>IF(_auto_day_shift!P4="","",_auto_day_shift!P4)</f>
         <v/>
       </c>
-      <c r="S7" s="20" t="str">
+      <c r="S7" s="26" t="str">
         <f>IF(_auto_day_shift!Q4="","",_auto_day_shift!Q4)</f>
         <v/>
       </c>
-      <c r="T7" s="63" t="str">
+      <c r="T7" s="27" t="str">
         <f>IF(_auto_day_shift!R4="","",_auto_day_shift!R4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="2:20">
-      <c r="B8" s="18" t="s">
+    <row ht="16" r="8">
+      <c r="B8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="21" t="str">
+      <c r="C8" s="28" t="str">
         <f>IF(_auto_day_shift!A6="","",_auto_day_shift!A6)</f>
         <v/>
       </c>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="28" t="str">
         <f>IF(_auto_day_shift!B6="","",_auto_day_shift!B6)</f>
         <v/>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="28" t="str">
         <f>IF(_auto_day_shift!C6="","",_auto_day_shift!C6)</f>
         <v/>
       </c>
-      <c r="F8" s="21" t="str">
+      <c r="F8" s="28" t="str">
         <f>IF(_auto_day_shift!D6="","",_auto_day_shift!D6)</f>
         <v/>
       </c>
-      <c r="G8" s="21" t="str">
+      <c r="G8" s="28" t="str">
         <f>IF(_auto_day_shift!E6="","",_auto_day_shift!E6)</f>
         <v/>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="28" t="str">
         <f>IF(_auto_day_shift!F6="","",_auto_day_shift!F6)</f>
         <v/>
       </c>
-      <c r="I8" s="21" t="str">
+      <c r="I8" s="28" t="str">
         <f>IF(_auto_day_shift!G6="","",_auto_day_shift!G6)</f>
         <v/>
       </c>
-      <c r="J8" s="21" t="str">
+      <c r="J8" s="28" t="str">
         <f>IF(_auto_day_shift!H6="","",_auto_day_shift!H6)</f>
         <v/>
       </c>
-      <c r="K8" s="21" t="str">
+      <c r="K8" s="28" t="str">
         <f>IF(_auto_day_shift!I6="","",_auto_day_shift!I6)</f>
         <v/>
       </c>
-      <c r="L8" s="21" t="str">
+      <c r="L8" s="28" t="str">
         <f>IF(_auto_day_shift!J6="","",_auto_day_shift!J6)</f>
         <v/>
       </c>
-      <c r="M8" s="21" t="str">
+      <c r="M8" s="28" t="str">
         <f>IF(_auto_day_shift!K6="","",_auto_day_shift!K6)</f>
         <v/>
       </c>
-      <c r="N8" s="21" t="str">
+      <c r="N8" s="28" t="str">
         <f>IF(_auto_day_shift!L6="","",_auto_day_shift!L6)</f>
         <v/>
       </c>
-      <c r="O8" s="21" t="str">
+      <c r="O8" s="28" t="str">
         <f>IF(_auto_day_shift!M6="","",_auto_day_shift!M6)</f>
         <v/>
       </c>
-      <c r="P8" s="21" t="str">
+      <c r="P8" s="28" t="str">
         <f>IF(_auto_day_shift!N6="","",_auto_day_shift!N6)</f>
         <v/>
       </c>
-      <c r="Q8" s="21" t="str">
+      <c r="Q8" s="28" t="str">
         <f>IF(_auto_day_shift!O6="","",_auto_day_shift!O6)</f>
         <v/>
       </c>
-      <c r="R8" s="21" t="str">
+      <c r="R8" s="28" t="str">
         <f>IF(_auto_day_shift!P6="","",_auto_day_shift!P6)</f>
         <v/>
       </c>
-      <c r="S8" s="21" t="str">
+      <c r="S8" s="28" t="str">
         <f>IF(_auto_day_shift!Q6="","",_auto_day_shift!Q6)</f>
         <v/>
       </c>
-      <c r="T8" s="64" t="str">
+      <c r="T8" s="29" t="str">
         <f>IF(_auto_day_shift!R6="","",_auto_day_shift!R6)</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="2:20">
-      <c r="B9" s="18" t="s">
+    <row ht="16" r="9">
+      <c r="B9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="26" t="str">
         <f>IF(_auto_day_shift!A8="","",_auto_day_shift!A8)</f>
         <v/>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="26" t="str">
         <f>IF(_auto_day_shift!B8="","",_auto_day_shift!B8)</f>
         <v/>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" s="26" t="str">
         <f>IF(_auto_day_shift!C8="","",_auto_day_shift!C8)</f>
         <v/>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="26" t="str">
         <f>IF(_auto_day_shift!D8="","",_auto_day_shift!D8)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="26" t="str">
         <f>IF(_auto_day_shift!E8="","",_auto_day_shift!E8)</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="26" t="str">
         <f>IF(_auto_day_shift!F8="","",_auto_day_shift!F8)</f>
         <v/>
       </c>
-      <c r="I9" s="20" t="str">
+      <c r="I9" s="26" t="str">
         <f>IF(_auto_day_shift!G8="","",_auto_day_shift!G8)</f>
         <v/>
       </c>
-      <c r="J9" s="20" t="str">
+      <c r="J9" s="26" t="str">
         <f>IF(_auto_day_shift!H8="","",_auto_day_shift!H8)</f>
         <v/>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K9" s="26" t="str">
         <f>IF(_auto_day_shift!I8="","",_auto_day_shift!I8)</f>
         <v/>
       </c>
-      <c r="L9" s="20" t="str">
+      <c r="L9" s="26" t="str">
         <f>IF(_auto_day_shift!J8="","",_auto_day_shift!J8)</f>
         <v/>
       </c>
-      <c r="M9" s="20" t="str">
+      <c r="M9" s="26" t="str">
         <f>IF(_auto_day_shift!K8="","",_auto_day_shift!K8)</f>
         <v/>
       </c>
-      <c r="N9" s="20" t="str">
+      <c r="N9" s="26" t="str">
         <f>IF(_auto_day_shift!L8="","",_auto_day_shift!L8)</f>
         <v/>
       </c>
-      <c r="O9" s="20" t="str">
+      <c r="O9" s="26" t="str">
         <f>IF(_auto_day_shift!M8="","",_auto_day_shift!M8)</f>
         <v/>
       </c>
-      <c r="P9" s="20" t="str">
+      <c r="P9" s="26" t="str">
         <f>IF(_auto_day_shift!N8="","",_auto_day_shift!N8)</f>
         <v/>
       </c>
-      <c r="Q9" s="20" t="str">
+      <c r="Q9" s="26" t="str">
         <f>IF(_auto_day_shift!O8="","",_auto_day_shift!O8)</f>
         <v/>
       </c>
-      <c r="R9" s="20" t="str">
+      <c r="R9" s="26" t="str">
         <f>IF(_auto_day_shift!P8="","",_auto_day_shift!P8)</f>
         <v/>
       </c>
-      <c r="S9" s="20" t="str">
+      <c r="S9" s="26" t="str">
         <f>IF(_auto_day_shift!Q8="","",_auto_day_shift!Q8)</f>
         <v/>
       </c>
-      <c r="T9" s="63" t="str">
+      <c r="T9" s="27" t="str">
         <f>IF(_auto_day_shift!R8="","",_auto_day_shift!R8)</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B10" s="22" t="s">
+    <row ht="18.75" customHeight="1" r="10">
+      <c r="B10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="31">
         <f>SUM(C9:H9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34">
         <f>SUM(I9:N9)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="26">
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="34">
         <f>SUM(O9:T9)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="65"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="37"/>
     </row>
-    <row r="11" ht="18.75" spans="2:20">
+    <row ht="17.5" r="11">
       <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
@@ -3135,440 +2726,440 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
-      <c r="T11" s="58"/>
+      <c r="T11" s="13"/>
     </row>
-    <row r="12" ht="18.75" spans="2:20">
-      <c r="B12" s="13" t="s">
+    <row ht="17.5" r="12">
+      <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="14" t="str">
+      <c r="C12" s="15" t="str">
         <f>IF(_name_day_shift!D2="","",_name_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="50" t="str">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18" t="str">
         <f>IF(_name_day_shift!E2="","",_name_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50" t="str">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18" t="str">
         <f>IF(_name_day_shift!F2="","",_name_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="59"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="19"/>
     </row>
-    <row r="13" ht="18.75" spans="2:20">
-      <c r="B13" s="13" t="s">
+    <row ht="17.5" r="13">
+      <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="17" t="s">
+      <c r="Q13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="17" t="s">
+      <c r="R13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="17" t="s">
+      <c r="S13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="T13" s="60" t="s">
+      <c r="T13" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="2:20">
-      <c r="B14" s="18" t="s">
+    <row ht="16" r="14">
+      <c r="B14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="19" t="str">
+      <c r="C14" s="24" t="str">
         <f>IF(_auto_day_shift!A10="","",_auto_day_shift!A10)</f>
         <v/>
       </c>
-      <c r="D14" s="19" t="str">
+      <c r="D14" s="24" t="str">
         <f>IF(_auto_day_shift!B10="","",_auto_day_shift!B10)</f>
         <v/>
       </c>
-      <c r="E14" s="19" t="str">
+      <c r="E14" s="24" t="str">
         <f>IF(_auto_day_shift!C10="","",_auto_day_shift!C10)</f>
         <v/>
       </c>
-      <c r="F14" s="19" t="str">
+      <c r="F14" s="24" t="str">
         <f>IF(_auto_day_shift!D10="","",_auto_day_shift!D10)</f>
         <v/>
       </c>
-      <c r="G14" s="19" t="str">
+      <c r="G14" s="24" t="str">
         <f>IF(_auto_day_shift!E10="","",_auto_day_shift!E10)</f>
         <v/>
       </c>
-      <c r="H14" s="19" t="str">
+      <c r="H14" s="24" t="str">
         <f>IF(_auto_day_shift!F10="","",_auto_day_shift!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="19" t="str">
+      <c r="I14" s="24" t="str">
         <f>IF(_auto_day_shift!G10="","",_auto_day_shift!G10)</f>
         <v/>
       </c>
-      <c r="J14" s="19" t="str">
+      <c r="J14" s="24" t="str">
         <f>IF(_auto_day_shift!H10="","",_auto_day_shift!H10)</f>
         <v/>
       </c>
-      <c r="K14" s="19" t="str">
+      <c r="K14" s="24" t="str">
         <f>IF(_auto_day_shift!I10="","",_auto_day_shift!I10)</f>
         <v/>
       </c>
-      <c r="L14" s="19" t="str">
+      <c r="L14" s="24" t="str">
         <f>IF(_auto_day_shift!J10="","",_auto_day_shift!J10)</f>
         <v/>
       </c>
-      <c r="M14" s="19" t="str">
+      <c r="M14" s="24" t="str">
         <f>IF(_auto_day_shift!K10="","",_auto_day_shift!K10)</f>
         <v/>
       </c>
-      <c r="N14" s="19" t="str">
+      <c r="N14" s="24" t="str">
         <f>IF(_auto_day_shift!L10="","",_auto_day_shift!L10)</f>
         <v/>
       </c>
-      <c r="O14" s="19" t="str">
+      <c r="O14" s="24" t="str">
         <f>IF(_auto_day_shift!M10="","",_auto_day_shift!M10)</f>
         <v/>
       </c>
-      <c r="P14" s="19" t="str">
+      <c r="P14" s="24" t="str">
         <f>IF(_auto_day_shift!N10="","",_auto_day_shift!N10)</f>
         <v/>
       </c>
-      <c r="Q14" s="19" t="str">
+      <c r="Q14" s="24" t="str">
         <f>IF(_auto_day_shift!O10="","",_auto_day_shift!O10)</f>
         <v/>
       </c>
-      <c r="R14" s="19" t="str">
+      <c r="R14" s="24" t="str">
         <f>IF(_auto_day_shift!P10="","",_auto_day_shift!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="19" t="str">
+      <c r="S14" s="24" t="str">
         <f>IF(_auto_day_shift!Q10="","",_auto_day_shift!Q10)</f>
         <v/>
       </c>
-      <c r="T14" s="62" t="str">
+      <c r="T14" s="25" t="str">
         <f>IF(_auto_day_shift!R10="","",_auto_day_shift!R10)</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="2:20">
-      <c r="B15" s="18" t="s">
+    <row ht="16" r="15">
+      <c r="B15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="26" t="str">
         <f>IF(_auto_day_shift!A12="","",_auto_day_shift!A12)</f>
         <v/>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="26" t="str">
         <f>IF(_auto_day_shift!B12="","",_auto_day_shift!B12)</f>
         <v/>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="26" t="str">
         <f>IF(_auto_day_shift!C12="","",_auto_day_shift!C12)</f>
         <v/>
       </c>
-      <c r="F15" s="20" t="str">
+      <c r="F15" s="26" t="str">
         <f>IF(_auto_day_shift!D12="","",_auto_day_shift!D12)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="26" t="str">
         <f>IF(_auto_day_shift!E12="","",_auto_day_shift!E12)</f>
         <v/>
       </c>
-      <c r="H15" s="20" t="str">
+      <c r="H15" s="26" t="str">
         <f>IF(_auto_day_shift!F12="","",_auto_day_shift!F12)</f>
         <v/>
       </c>
-      <c r="I15" s="20" t="str">
+      <c r="I15" s="26" t="str">
         <f>IF(_auto_day_shift!G12="","",_auto_day_shift!G12)</f>
         <v/>
       </c>
-      <c r="J15" s="20" t="str">
+      <c r="J15" s="26" t="str">
         <f>IF(_auto_day_shift!H12="","",_auto_day_shift!H12)</f>
         <v/>
       </c>
-      <c r="K15" s="20" t="str">
+      <c r="K15" s="26" t="str">
         <f>IF(_auto_day_shift!I12="","",_auto_day_shift!I12)</f>
         <v/>
       </c>
-      <c r="L15" s="20" t="str">
+      <c r="L15" s="26" t="str">
         <f>IF(_auto_day_shift!J12="","",_auto_day_shift!J12)</f>
         <v/>
       </c>
-      <c r="M15" s="20" t="str">
+      <c r="M15" s="26" t="str">
         <f>IF(_auto_day_shift!K12="","",_auto_day_shift!K12)</f>
         <v/>
       </c>
-      <c r="N15" s="20" t="str">
+      <c r="N15" s="26" t="str">
         <f>IF(_auto_day_shift!L12="","",_auto_day_shift!L12)</f>
         <v/>
       </c>
-      <c r="O15" s="20" t="str">
+      <c r="O15" s="26" t="str">
         <f>IF(_auto_day_shift!M12="","",_auto_day_shift!M12)</f>
         <v/>
       </c>
-      <c r="P15" s="20" t="str">
+      <c r="P15" s="26" t="str">
         <f>IF(_auto_day_shift!N12="","",_auto_day_shift!N12)</f>
         <v/>
       </c>
-      <c r="Q15" s="20" t="str">
+      <c r="Q15" s="26" t="str">
         <f>IF(_auto_day_shift!O12="","",_auto_day_shift!O12)</f>
         <v/>
       </c>
-      <c r="R15" s="20" t="str">
+      <c r="R15" s="26" t="str">
         <f>IF(_auto_day_shift!P12="","",_auto_day_shift!P12)</f>
         <v/>
       </c>
-      <c r="S15" s="20" t="str">
+      <c r="S15" s="26" t="str">
         <f>IF(_auto_day_shift!Q12="","",_auto_day_shift!Q12)</f>
         <v/>
       </c>
-      <c r="T15" s="63" t="str">
+      <c r="T15" s="27" t="str">
         <f>IF(_auto_day_shift!R12="","",_auto_day_shift!R12)</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="2:20">
-      <c r="B16" s="18" t="s">
+    <row ht="16" r="16">
+      <c r="B16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="21" t="str">
+      <c r="C16" s="28" t="str">
         <f>IF(_auto_day_shift!A14="","",_auto_day_shift!A14)</f>
         <v/>
       </c>
-      <c r="D16" s="21" t="str">
+      <c r="D16" s="28" t="str">
         <f>IF(_auto_day_shift!B14="","",_auto_day_shift!B14)</f>
         <v/>
       </c>
-      <c r="E16" s="21" t="str">
+      <c r="E16" s="28" t="str">
         <f>IF(_auto_day_shift!C14="","",_auto_day_shift!C14)</f>
         <v/>
       </c>
-      <c r="F16" s="21" t="str">
+      <c r="F16" s="28" t="str">
         <f>IF(_auto_day_shift!D14="","",_auto_day_shift!D14)</f>
         <v/>
       </c>
-      <c r="G16" s="21" t="str">
+      <c r="G16" s="28" t="str">
         <f>IF(_auto_day_shift!E14="","",_auto_day_shift!E14)</f>
         <v/>
       </c>
-      <c r="H16" s="21" t="str">
+      <c r="H16" s="28" t="str">
         <f>IF(_auto_day_shift!F14="","",_auto_day_shift!F14)</f>
         <v/>
       </c>
-      <c r="I16" s="21" t="str">
+      <c r="I16" s="28" t="str">
         <f>IF(_auto_day_shift!G14="","",_auto_day_shift!G14)</f>
         <v/>
       </c>
-      <c r="J16" s="21" t="str">
+      <c r="J16" s="28" t="str">
         <f>IF(_auto_day_shift!H14="","",_auto_day_shift!H14)</f>
         <v/>
       </c>
-      <c r="K16" s="21" t="str">
+      <c r="K16" s="28" t="str">
         <f>IF(_auto_day_shift!I14="","",_auto_day_shift!I14)</f>
         <v/>
       </c>
-      <c r="L16" s="21" t="str">
+      <c r="L16" s="28" t="str">
         <f>IF(_auto_day_shift!J14="","",_auto_day_shift!J14)</f>
         <v/>
       </c>
-      <c r="M16" s="21" t="str">
+      <c r="M16" s="28" t="str">
         <f>IF(_auto_day_shift!K14="","",_auto_day_shift!K14)</f>
         <v/>
       </c>
-      <c r="N16" s="21" t="str">
+      <c r="N16" s="28" t="str">
         <f>IF(_auto_day_shift!L14="","",_auto_day_shift!L14)</f>
         <v/>
       </c>
-      <c r="O16" s="21" t="str">
+      <c r="O16" s="28" t="str">
         <f>IF(_auto_day_shift!M14="","",_auto_day_shift!M14)</f>
         <v/>
       </c>
-      <c r="P16" s="21" t="str">
+      <c r="P16" s="28" t="str">
         <f>IF(_auto_day_shift!N14="","",_auto_day_shift!N14)</f>
         <v/>
       </c>
-      <c r="Q16" s="21" t="str">
+      <c r="Q16" s="28" t="str">
         <f>IF(_auto_day_shift!O14="","",_auto_day_shift!O14)</f>
         <v/>
       </c>
-      <c r="R16" s="21" t="str">
+      <c r="R16" s="28" t="str">
         <f>IF(_auto_day_shift!P14="","",_auto_day_shift!P14)</f>
         <v/>
       </c>
-      <c r="S16" s="21" t="str">
+      <c r="S16" s="28" t="str">
         <f>IF(_auto_day_shift!Q14="","",_auto_day_shift!Q14)</f>
         <v/>
       </c>
-      <c r="T16" s="64" t="str">
+      <c r="T16" s="29" t="str">
         <f>IF(_auto_day_shift!R14="","",_auto_day_shift!R14)</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="2:20">
-      <c r="B17" s="18" t="s">
+    <row ht="16" r="17">
+      <c r="B17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="20" t="str">
+      <c r="C17" s="26" t="str">
         <f>IF(_auto_day_shift!A16="","",_auto_day_shift!A16)</f>
         <v/>
       </c>
-      <c r="D17" s="20" t="str">
+      <c r="D17" s="26" t="str">
         <f>IF(_auto_day_shift!B16="","",_auto_day_shift!B16)</f>
         <v/>
       </c>
-      <c r="E17" s="20" t="str">
+      <c r="E17" s="26" t="str">
         <f>IF(_auto_day_shift!C16="","",_auto_day_shift!C16)</f>
         <v/>
       </c>
-      <c r="F17" s="20" t="str">
+      <c r="F17" s="26" t="str">
         <f>IF(_auto_day_shift!D16="","",_auto_day_shift!D16)</f>
         <v/>
       </c>
-      <c r="G17" s="20" t="str">
+      <c r="G17" s="26" t="str">
         <f>IF(_auto_day_shift!E16="","",_auto_day_shift!E16)</f>
         <v/>
       </c>
-      <c r="H17" s="20" t="str">
+      <c r="H17" s="26" t="str">
         <f>IF(_auto_day_shift!F16="","",_auto_day_shift!F16)</f>
         <v/>
       </c>
-      <c r="I17" s="20" t="str">
+      <c r="I17" s="26" t="str">
         <f>IF(_auto_day_shift!G16="","",_auto_day_shift!G16)</f>
         <v/>
       </c>
-      <c r="J17" s="20" t="str">
+      <c r="J17" s="26" t="str">
         <f>IF(_auto_day_shift!H16="","",_auto_day_shift!H16)</f>
         <v/>
       </c>
-      <c r="K17" s="20" t="str">
+      <c r="K17" s="26" t="str">
         <f>IF(_auto_day_shift!I16="","",_auto_day_shift!I16)</f>
         <v/>
       </c>
-      <c r="L17" s="20" t="str">
+      <c r="L17" s="26" t="str">
         <f>IF(_auto_day_shift!J16="","",_auto_day_shift!J16)</f>
         <v/>
       </c>
-      <c r="M17" s="20" t="str">
+      <c r="M17" s="26" t="str">
         <f>IF(_auto_day_shift!K16="","",_auto_day_shift!K16)</f>
         <v/>
       </c>
-      <c r="N17" s="20" t="str">
+      <c r="N17" s="26" t="str">
         <f>IF(_auto_day_shift!L16="","",_auto_day_shift!L16)</f>
         <v/>
       </c>
-      <c r="O17" s="20" t="str">
+      <c r="O17" s="26" t="str">
         <f>IF(_auto_day_shift!M16="","",_auto_day_shift!M16)</f>
         <v/>
       </c>
-      <c r="P17" s="20" t="str">
+      <c r="P17" s="26" t="str">
         <f>IF(_auto_day_shift!N16="","",_auto_day_shift!N16)</f>
         <v/>
       </c>
-      <c r="Q17" s="20" t="str">
+      <c r="Q17" s="26" t="str">
         <f>IF(_auto_day_shift!O16="","",_auto_day_shift!O16)</f>
         <v/>
       </c>
-      <c r="R17" s="20" t="str">
+      <c r="R17" s="26" t="str">
         <f>IF(_auto_day_shift!P16="","",_auto_day_shift!P16)</f>
         <v/>
       </c>
-      <c r="S17" s="20" t="str">
+      <c r="S17" s="26" t="str">
         <f>IF(_auto_day_shift!Q16="","",_auto_day_shift!Q16)</f>
         <v/>
       </c>
-      <c r="T17" s="63" t="str">
+      <c r="T17" s="27" t="str">
         <f>IF(_auto_day_shift!R16="","",_auto_day_shift!R16)</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B18" s="22" t="s">
+    <row ht="18.75" customHeight="1" r="18">
+      <c r="B18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="34">
         <f>SUM(C17:H17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="26">
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="34">
         <f>SUM(I17:N17)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="26">
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="34">
         <f>SUM(O17:T17)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="65"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="37"/>
     </row>
-    <row r="19" ht="18.75" customHeight="1" spans="2:20">
+    <row ht="18.75" customHeight="1" r="19">
       <c r="B19" s="9" t="s">
         <v>52</v>
       </c>
@@ -3595,598 +3186,598 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
-      <c r="T19" s="58"/>
+      <c r="T19" s="13"/>
     </row>
-    <row r="20" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B20" s="13" t="s">
+    <row ht="18.75" customHeight="1" r="20">
+      <c r="B20" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="14" t="str">
+      <c r="C20" s="15" t="str">
         <f>IF(_name_day_shift!G2="","",_name_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="14" t="str">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="15" t="str">
         <f>IF(_name_day_shift!H2="","",_name_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="14" t="str">
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="15" t="str">
         <f>IF(_name_day_shift!I2="","",_name_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="66"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="38"/>
     </row>
-    <row r="21" ht="18.75" spans="2:20">
-      <c r="B21" s="13" t="s">
+    <row ht="17.5" r="21">
+      <c r="B21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="29" t="s">
+      <c r="L21" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="29" t="s">
+      <c r="M21" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="N21" s="29" t="s">
+      <c r="N21" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="O21" s="29" t="s">
+      <c r="O21" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="P21" s="29" t="s">
+      <c r="P21" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="Q21" s="29" t="s">
+      <c r="Q21" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="R21" s="29" t="s">
+      <c r="R21" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="S21" s="29" t="s">
+      <c r="S21" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="T21" s="67" t="s">
+      <c r="T21" s="40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="2:20">
-      <c r="B22" s="18" t="s">
+    <row ht="16" r="22">
+      <c r="B22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="19" t="str">
+      <c r="C22" s="24" t="str">
         <f>IF(_auto_day_shift!A18="","",_auto_day_shift!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="19" t="str">
+      <c r="D22" s="24" t="str">
         <f>IF(_auto_day_shift!B18="","",_auto_day_shift!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="19" t="str">
+      <c r="E22" s="24" t="str">
         <f>IF(_auto_day_shift!C18="","",_auto_day_shift!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="19" t="str">
+      <c r="F22" s="24" t="str">
         <f>IF(_auto_day_shift!D18="","",_auto_day_shift!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="19" t="str">
+      <c r="G22" s="24" t="str">
         <f>IF(_auto_day_shift!E18="","",_auto_day_shift!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="19" t="str">
+      <c r="H22" s="24" t="str">
         <f>IF(_auto_day_shift!F18="","",_auto_day_shift!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="19" t="str">
+      <c r="I22" s="24" t="str">
         <f>IF(_auto_day_shift!G18="","",_auto_day_shift!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="19" t="str">
+      <c r="J22" s="24" t="str">
         <f>IF(_auto_day_shift!H18="","",_auto_day_shift!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="19" t="str">
+      <c r="K22" s="24" t="str">
         <f>IF(_auto_day_shift!I18="","",_auto_day_shift!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="19" t="str">
+      <c r="L22" s="24" t="str">
         <f>IF(_auto_day_shift!J18="","",_auto_day_shift!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="19" t="str">
+      <c r="M22" s="24" t="str">
         <f>IF(_auto_day_shift!K18="","",_auto_day_shift!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="19" t="str">
+      <c r="N22" s="24" t="str">
         <f>IF(_auto_day_shift!L18="","",_auto_day_shift!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="19" t="str">
+      <c r="O22" s="24" t="str">
         <f>IF(_auto_day_shift!M18="","",_auto_day_shift!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="19" t="str">
+      <c r="P22" s="24" t="str">
         <f>IF(_auto_day_shift!N18="","",_auto_day_shift!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="19" t="str">
+      <c r="Q22" s="24" t="str">
         <f>IF(_auto_day_shift!O18="","",_auto_day_shift!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="19" t="str">
+      <c r="R22" s="24" t="str">
         <f>IF(_auto_day_shift!P18="","",_auto_day_shift!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="19" t="str">
+      <c r="S22" s="24" t="str">
         <f>IF(_auto_day_shift!Q18="","",_auto_day_shift!Q18)</f>
         <v/>
       </c>
-      <c r="T22" s="62" t="str">
+      <c r="T22" s="25" t="str">
         <f>IF(_auto_day_shift!R18="","",_auto_day_shift!R18)</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="2:20">
-      <c r="B23" s="18" t="s">
+    <row ht="16" r="23">
+      <c r="B23" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="20" t="str">
+      <c r="C23" s="26" t="str">
         <f>IF(_auto_day_shift!A20="","",_auto_day_shift!A20)</f>
         <v/>
       </c>
-      <c r="D23" s="20" t="str">
+      <c r="D23" s="26" t="str">
         <f>IF(_auto_day_shift!B20="","",_auto_day_shift!B20)</f>
         <v/>
       </c>
-      <c r="E23" s="20" t="str">
+      <c r="E23" s="26" t="str">
         <f>IF(_auto_day_shift!C20="","",_auto_day_shift!C20)</f>
         <v/>
       </c>
-      <c r="F23" s="20" t="str">
+      <c r="F23" s="26" t="str">
         <f>IF(_auto_day_shift!D20="","",_auto_day_shift!D20)</f>
         <v/>
       </c>
-      <c r="G23" s="20" t="str">
+      <c r="G23" s="26" t="str">
         <f>IF(_auto_day_shift!E20="","",_auto_day_shift!E20)</f>
         <v/>
       </c>
-      <c r="H23" s="20" t="str">
+      <c r="H23" s="26" t="str">
         <f>IF(_auto_day_shift!F20="","",_auto_day_shift!F20)</f>
         <v/>
       </c>
-      <c r="I23" s="20" t="str">
+      <c r="I23" s="26" t="str">
         <f>IF(_auto_day_shift!G20="","",_auto_day_shift!G20)</f>
         <v/>
       </c>
-      <c r="J23" s="20" t="str">
+      <c r="J23" s="26" t="str">
         <f>IF(_auto_day_shift!H20="","",_auto_day_shift!H20)</f>
         <v/>
       </c>
-      <c r="K23" s="20" t="str">
+      <c r="K23" s="26" t="str">
         <f>IF(_auto_day_shift!I20="","",_auto_day_shift!I20)</f>
         <v/>
       </c>
-      <c r="L23" s="20" t="str">
+      <c r="L23" s="26" t="str">
         <f>IF(_auto_day_shift!J20="","",_auto_day_shift!J20)</f>
         <v/>
       </c>
-      <c r="M23" s="20" t="str">
+      <c r="M23" s="26" t="str">
         <f>IF(_auto_day_shift!K20="","",_auto_day_shift!K20)</f>
         <v/>
       </c>
-      <c r="N23" s="20" t="str">
+      <c r="N23" s="26" t="str">
         <f>IF(_auto_day_shift!L20="","",_auto_day_shift!L20)</f>
         <v/>
       </c>
-      <c r="O23" s="20" t="str">
+      <c r="O23" s="26" t="str">
         <f>IF(_auto_day_shift!M20="","",_auto_day_shift!M20)</f>
         <v/>
       </c>
-      <c r="P23" s="20" t="str">
+      <c r="P23" s="26" t="str">
         <f>IF(_auto_day_shift!N20="","",_auto_day_shift!N20)</f>
         <v/>
       </c>
-      <c r="Q23" s="20" t="str">
+      <c r="Q23" s="26" t="str">
         <f>IF(_auto_day_shift!O20="","",_auto_day_shift!O20)</f>
         <v/>
       </c>
-      <c r="R23" s="20" t="str">
+      <c r="R23" s="26" t="str">
         <f>IF(_auto_day_shift!P20="","",_auto_day_shift!P20)</f>
         <v/>
       </c>
-      <c r="S23" s="20" t="str">
+      <c r="S23" s="26" t="str">
         <f>IF(_auto_day_shift!Q20="","",_auto_day_shift!Q20)</f>
         <v/>
       </c>
-      <c r="T23" s="63" t="str">
+      <c r="T23" s="27" t="str">
         <f>IF(_auto_day_shift!R20="","",_auto_day_shift!R20)</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15.75" spans="2:20">
-      <c r="B24" s="18" t="s">
+    <row ht="16" r="24">
+      <c r="B24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="21" t="str">
+      <c r="C24" s="28" t="str">
         <f>IF(_auto_day_shift!A22="","",_auto_day_shift!A22)</f>
         <v/>
       </c>
-      <c r="D24" s="21" t="str">
+      <c r="D24" s="28" t="str">
         <f>IF(_auto_day_shift!B22="","",_auto_day_shift!B22)</f>
         <v/>
       </c>
-      <c r="E24" s="21" t="str">
+      <c r="E24" s="28" t="str">
         <f>IF(_auto_day_shift!C22="","",_auto_day_shift!C22)</f>
         <v/>
       </c>
-      <c r="F24" s="21" t="str">
+      <c r="F24" s="28" t="str">
         <f>IF(_auto_day_shift!D22="","",_auto_day_shift!D22)</f>
         <v/>
       </c>
-      <c r="G24" s="21" t="str">
+      <c r="G24" s="28" t="str">
         <f>IF(_auto_day_shift!E22="","",_auto_day_shift!E22)</f>
         <v/>
       </c>
-      <c r="H24" s="21" t="str">
+      <c r="H24" s="28" t="str">
         <f>IF(_auto_day_shift!F22="","",_auto_day_shift!F22)</f>
         <v/>
       </c>
-      <c r="I24" s="21" t="str">
+      <c r="I24" s="28" t="str">
         <f>IF(_auto_day_shift!G22="","",_auto_day_shift!G22)</f>
         <v/>
       </c>
-      <c r="J24" s="21" t="str">
+      <c r="J24" s="28" t="str">
         <f>IF(_auto_day_shift!H22="","",_auto_day_shift!H22)</f>
         <v/>
       </c>
-      <c r="K24" s="21" t="str">
+      <c r="K24" s="28" t="str">
         <f>IF(_auto_day_shift!I22="","",_auto_day_shift!I22)</f>
         <v/>
       </c>
-      <c r="L24" s="21" t="str">
+      <c r="L24" s="28" t="str">
         <f>IF(_auto_day_shift!J22="","",_auto_day_shift!J22)</f>
         <v/>
       </c>
-      <c r="M24" s="21" t="str">
+      <c r="M24" s="28" t="str">
         <f>IF(_auto_day_shift!K22="","",_auto_day_shift!K22)</f>
         <v/>
       </c>
-      <c r="N24" s="21" t="str">
+      <c r="N24" s="28" t="str">
         <f>IF(_auto_day_shift!L22="","",_auto_day_shift!L22)</f>
         <v/>
       </c>
-      <c r="O24" s="21" t="str">
+      <c r="O24" s="28" t="str">
         <f>IF(_auto_day_shift!M22="","",_auto_day_shift!M22)</f>
         <v/>
       </c>
-      <c r="P24" s="21" t="str">
+      <c r="P24" s="28" t="str">
         <f>IF(_auto_day_shift!N22="","",_auto_day_shift!N22)</f>
         <v/>
       </c>
-      <c r="Q24" s="21" t="str">
+      <c r="Q24" s="28" t="str">
         <f>IF(_auto_day_shift!O22="","",_auto_day_shift!O22)</f>
         <v/>
       </c>
-      <c r="R24" s="21" t="str">
+      <c r="R24" s="28" t="str">
         <f>IF(_auto_day_shift!P22="","",_auto_day_shift!P22)</f>
         <v/>
       </c>
-      <c r="S24" s="21" t="str">
+      <c r="S24" s="28" t="str">
         <f>IF(_auto_day_shift!Q22="","",_auto_day_shift!Q22)</f>
         <v/>
       </c>
-      <c r="T24" s="64" t="str">
+      <c r="T24" s="29" t="str">
         <f>IF(_auto_day_shift!R22="","",_auto_day_shift!R22)</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="2:20">
-      <c r="B25" s="18" t="s">
+    <row ht="16" r="25">
+      <c r="B25" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="20" t="str">
+      <c r="C25" s="26" t="str">
         <f>IF(_auto_day_shift!A24="","",_auto_day_shift!A24)</f>
         <v/>
       </c>
-      <c r="D25" s="20" t="str">
+      <c r="D25" s="26" t="str">
         <f>IF(_auto_day_shift!B24="","",_auto_day_shift!B24)</f>
         <v/>
       </c>
-      <c r="E25" s="20" t="str">
+      <c r="E25" s="26" t="str">
         <f>IF(_auto_day_shift!C24="","",_auto_day_shift!C24)</f>
         <v/>
       </c>
-      <c r="F25" s="20" t="str">
+      <c r="F25" s="26" t="str">
         <f>IF(_auto_day_shift!D24="","",_auto_day_shift!D24)</f>
         <v/>
       </c>
-      <c r="G25" s="20" t="str">
+      <c r="G25" s="26" t="str">
         <f>IF(_auto_day_shift!E24="","",_auto_day_shift!E24)</f>
         <v/>
       </c>
-      <c r="H25" s="20" t="str">
+      <c r="H25" s="26" t="str">
         <f>IF(_auto_day_shift!F24="","",_auto_day_shift!F24)</f>
         <v/>
       </c>
-      <c r="I25" s="20" t="str">
+      <c r="I25" s="26" t="str">
         <f>IF(_auto_day_shift!G24="","",_auto_day_shift!G24)</f>
         <v/>
       </c>
-      <c r="J25" s="20" t="str">
+      <c r="J25" s="26" t="str">
         <f>IF(_auto_day_shift!H24="","",_auto_day_shift!H24)</f>
         <v/>
       </c>
-      <c r="K25" s="20" t="str">
+      <c r="K25" s="26" t="str">
         <f>IF(_auto_day_shift!I24="","",_auto_day_shift!I24)</f>
         <v/>
       </c>
-      <c r="L25" s="20" t="str">
+      <c r="L25" s="26" t="str">
         <f>IF(_auto_day_shift!J24="","",_auto_day_shift!J24)</f>
         <v/>
       </c>
-      <c r="M25" s="20" t="str">
+      <c r="M25" s="26" t="str">
         <f>IF(_auto_day_shift!K24="","",_auto_day_shift!K24)</f>
         <v/>
       </c>
-      <c r="N25" s="20" t="str">
+      <c r="N25" s="26" t="str">
         <f>IF(_auto_day_shift!L24="","",_auto_day_shift!L24)</f>
         <v/>
       </c>
-      <c r="O25" s="20" t="str">
+      <c r="O25" s="26" t="str">
         <f>IF(_auto_day_shift!M24="","",_auto_day_shift!M24)</f>
         <v/>
       </c>
-      <c r="P25" s="20" t="str">
+      <c r="P25" s="26" t="str">
         <f>IF(_auto_day_shift!N24="","",_auto_day_shift!N24)</f>
         <v/>
       </c>
-      <c r="Q25" s="20" t="str">
+      <c r="Q25" s="26" t="str">
         <f>IF(_auto_day_shift!O24="","",_auto_day_shift!O24)</f>
         <v/>
       </c>
-      <c r="R25" s="20" t="str">
+      <c r="R25" s="26" t="str">
         <f>IF(_auto_day_shift!P24="","",_auto_day_shift!P24)</f>
         <v/>
       </c>
-      <c r="S25" s="20" t="str">
+      <c r="S25" s="26" t="str">
         <f>IF(_auto_day_shift!Q24="","",_auto_day_shift!Q24)</f>
         <v/>
       </c>
-      <c r="T25" s="63" t="str">
+      <c r="T25" s="27" t="str">
         <f>IF(_auto_day_shift!R24="","",_auto_day_shift!R24)</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B26" s="22" t="s">
+    <row ht="18.75" customHeight="1" r="26">
+      <c r="B26" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="34">
         <f>SUM(C25:H25)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="26">
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="34">
         <f>SUM(I25:N25)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="26">
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="34">
         <f>SUM(O25:T25)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="65"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="37"/>
     </row>
-    <row r="27" ht="19.75" customHeight="1" spans="2:20">
-      <c r="B27" s="30" t="s">
+    <row ht="19.75" customHeight="1" r="27">
+      <c r="B27" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="31" t="str">
+      <c r="C27" s="42" t="str">
         <f>IF(_evt_day_shift!A2="","",_evt_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="51" t="s">
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="31" t="str">
+      <c r="J27" s="46"/>
+      <c r="K27" s="42" t="str">
         <f>IF(_evt_day_shift!B2="","",_evt_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="51" t="s">
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="31" t="str">
+      <c r="P27" s="46"/>
+      <c r="Q27" s="42" t="str">
         <f>IF(_auto_day_shift!A34="","",_auto_day_shift!A34)</f>
         <v/>
       </c>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="33"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="44"/>
     </row>
-    <row r="28" ht="19.75" customHeight="1" spans="2:20">
-      <c r="B28" s="34" t="s">
+    <row ht="19.75" customHeight="1" r="28">
+      <c r="B28" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="35" t="str">
+      <c r="C28" s="48" t="str">
         <f>IF(_auto_day_shift!A31="","",_auto_day_shift!A31)</f>
         <v/>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="53" t="s">
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="35" t="str">
+      <c r="P28" s="53"/>
+      <c r="Q28" s="48" t="str">
         <f>IF(_auto_day_shift!A32="","",_auto_day_shift!A32)</f>
         <v/>
       </c>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="37"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="50"/>
     </row>
-    <row r="29" s="4" customFormat="1" ht="19.75" customHeight="1" spans="2:20">
-      <c r="B29" s="38" t="s">
+    <row customFormat="1" ht="19.75" customHeight="1" r="29" s="1">
+      <c r="B29" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="40" t="str">
+      <c r="D29" s="56" t="str">
         <f>IF(_evt_day_shift!E15="","",_evt_day_shift!E15)</f>
         <v/>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="39" t="s">
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="H29" s="40" t="str">
+      <c r="H29" s="56" t="str">
         <f>IF(_evt_day_shift!F15="","",_evt_day_shift!F15)</f>
         <v/>
       </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="39" t="s">
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="L29" s="40" t="str">
+      <c r="L29" s="56" t="str">
         <f>IF(_evt_day_shift!G15="","",_evt_day_shift!G15)</f>
         <v/>
       </c>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="39" t="s">
+      <c r="M29" s="57"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="68"/>
-      <c r="T29" s="69"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="60"/>
+      <c r="T29" s="61"/>
     </row>
-    <row r="30" ht="147" customHeight="1" spans="2:20">
-      <c r="B30" s="43" t="s">
+    <row ht="147" customHeight="1" r="30">
+      <c r="B30" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="70"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="65"/>
     </row>
-    <row r="31" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B31" s="46" t="s">
+    <row ht="18.75" customHeight="1" r="31">
+      <c r="B31" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="46" t="s">
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="48"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="68"/>
     </row>
-    <row r="39" ht="18.75" customHeight="1"/>
-    <row r="48" ht="117" customHeight="1"/>
-    <row r="50" ht="18.75" customHeight="1"/>
-    <row r="59" ht="18.75" customHeight="1"/>
-    <row r="68" ht="135.75" customHeight="1"/>
+    <row ht="18.75" customHeight="1" r="39"/>
+    <row ht="117" customHeight="1" r="48"/>
+    <row ht="18.75" customHeight="1" r="50"/>
+    <row ht="18.75" customHeight="1" r="59"/>
+    <row ht="135.75" customHeight="1" r="68"/>
   </sheetData>
   <mergeCells count="46">
     <mergeCell ref="B1:T1"/>
@@ -4236,89 +3827,87 @@
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="I31:T31"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.45" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.45" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.9083333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.9083333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.45" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.0916666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col customWidth="1" min="1" max="1" style="1" width="45.4140625"/>
+    <col customWidth="1" min="2" max="2" style="1" width="43.4140625"/>
+    <col customWidth="1" min="3" max="3" style="1" width="46.9140625"/>
+    <col customWidth="1" min="4" max="4" style="1" width="36.9140625"/>
+    <col customWidth="1" min="5" max="5" style="1" width="36.4140625"/>
+    <col customWidth="1" min="6" max="6" style="1" width="30.08203125"/>
+    <col min="7" max="16384" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="69" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>104</v>
       </c>
@@ -4374,7 +3963,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
@@ -4430,7 +4019,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
@@ -4486,63 +4075,63 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="1" t="s">
+    <row r="9">
+      <c r="A9" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="69" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>176</v>
       </c>
@@ -4598,7 +4187,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>194</v>
       </c>
@@ -4654,7 +4243,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15">
       <c r="A15" s="1" t="s">
         <v>212</v>
       </c>
@@ -4710,63 +4299,63 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="1" t="s">
+    <row r="17">
+      <c r="A17" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="69" t="s">
         <v>237</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="69" t="s">
         <v>246</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" s="69" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19">
       <c r="A19" s="1" t="s">
         <v>248</v>
       </c>
@@ -4822,7 +4411,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21">
       <c r="A21" s="1" t="s">
         <v>266</v>
       </c>
@@ -4878,7 +4467,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23">
       <c r="A23" s="1" t="s">
         <v>284</v>
       </c>
@@ -4935,92 +4524,86 @@
       </c>
     </row>
   </sheetData>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="70" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="70" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="70" t="s">
         <v>304</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="70" t="s">
         <v>306</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="70" t="s">
         <v>307</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>310</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="23.83203125"/>
+    <col customWidth="1" min="2" max="2" width="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row ht="15.5" r="1">
       <c r="A1" s="1" t="s">
         <v>311</v>
       </c>
@@ -5029,8 +4612,8 @@
       </c>
     </row>
   </sheetData>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>